--- a/files/DownTime_shift.xlsx
+++ b/files/DownTime_shift.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -10,7 +10,7 @@
     <sheet name="summary" sheetId="2" r:id="rId1"/>
     <sheet name="main" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -179,11 +179,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,30 +1051,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,9 +1101,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,6 +1255,61 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1294,65 +1322,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
     <cellStyle name="Звичайний 3" xfId="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1366,17 +1366,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="uk-UA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1398,17 +1388,14 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>summary!$B$10:$B$24</c:f>
@@ -1517,59 +1504,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="101311232"/>
-        <c:axId val="101312768"/>
+        <c:axId val="103764736"/>
+        <c:axId val="103766272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101311232"/>
+        <c:axId val="103764736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101312768"/>
+        <c:crossAx val="103766272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101312768"/>
+        <c:axId val="103766272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101311232"/>
+        <c:crossAx val="103764736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1577,17 +1547,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="uk-UA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1609,17 +1569,14 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>summary!$J$10:$J$26</c:f>
@@ -1684,7 +1641,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>summary!$J$10:$J$26</c:f>
@@ -1746,59 +1702,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="79953920"/>
-        <c:axId val="79955456"/>
+        <c:axId val="103799808"/>
+        <c:axId val="103678720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79953920"/>
+        <c:axId val="103799808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79955456"/>
+        <c:crossAx val="103678720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79955456"/>
+        <c:axId val="103678720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79953920"/>
+        <c:crossAx val="103799808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1872,7 +1811,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартна">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1910,7 +1849,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартна">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1944,7 +1883,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1979,10 +1917,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартна">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2155,14 +2092,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -2180,23 +2117,23 @@
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="127"/>
-    </row>
-    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B4" s="137"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+    </row>
+    <row r="5" spans="2:18" ht="15.75" thickBot="1">
       <c r="B5" s="131" t="s">
         <v>3</v>
       </c>
@@ -2206,36 +2143,36 @@
       <c r="F5" s="132"/>
       <c r="G5" s="132"/>
       <c r="H5" s="133"/>
-      <c r="I5" s="122" t="s">
+      <c r="I5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="128"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="134" t="s">
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="113"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="137" t="s">
+      <c r="F6" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="G6" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="121" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2256,9 +2193,9 @@
       <c r="N6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="128"/>
-    </row>
-    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="113"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickBot="1">
       <c r="B7" s="9">
         <f>main!J41</f>
         <v>0</v>
@@ -2309,476 +2246,476 @@
         <f>(F7+I7+J7)/(L7+H7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="128"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="120"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="128"/>
-    </row>
-    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="79"/>
-      <c r="C9" s="118" t="s">
+      <c r="O7" s="113"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="111"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="113"/>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B9" s="70"/>
+      <c r="C9" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="118" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="128"/>
-      <c r="R9" s="129"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="47" t="s">
+      <c r="K9" s="55"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="113"/>
+      <c r="R9" s="114"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="143">
+      <c r="C10" s="125">
         <f>main!Q3</f>
         <v>0</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="47" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="47">
         <f>main!AB2</f>
         <v>0</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="128"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="144" t="s">
+      <c r="K10" s="55"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="113"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="145">
+      <c r="C11" s="127">
         <f>main!Q4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="140">
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="122">
         <v>80001849</v>
       </c>
-      <c r="J11" s="108">
+      <c r="J11" s="99">
         <f>main!AB3</f>
         <v>0</v>
       </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="128"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="146" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="113"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="145">
+      <c r="C12" s="127">
         <f>main!Q5</f>
         <v>0</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="140">
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="122">
         <v>80001952</v>
       </c>
-      <c r="J12" s="108">
+      <c r="J12" s="99">
         <f>main!AB4</f>
         <v>0</v>
       </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="128"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="146" t="s">
+      <c r="K12" s="55"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="113"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="145">
+      <c r="C13" s="127">
         <f>main!Q6</f>
         <v>0</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="140">
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="122">
         <v>80002000</v>
       </c>
-      <c r="J13" s="108">
+      <c r="J13" s="99">
         <f>main!AB5</f>
         <v>0</v>
       </c>
-      <c r="K13" s="64"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="128"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="144" t="s">
+      <c r="K13" s="55"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="113"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="145">
+      <c r="C14" s="127">
         <f>main!Q7</f>
         <v>0</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="140">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="122">
         <v>80002073</v>
       </c>
-      <c r="J14" s="108">
+      <c r="J14" s="99">
         <f>main!AB6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="64"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="128"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="144" t="s">
+      <c r="K14" s="55"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="113"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="145">
+      <c r="C15" s="127">
         <f>main!Q8</f>
         <v>0</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="140">
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="122">
         <v>80002264</v>
       </c>
-      <c r="J15" s="108">
+      <c r="J15" s="99">
         <f>main!AB7</f>
         <v>0</v>
       </c>
-      <c r="K15" s="64"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="128"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="144" t="s">
+      <c r="K15" s="55"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="113"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="145">
+      <c r="C16" s="127">
         <f>main!Q9</f>
         <v>0</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="140">
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="122">
         <v>80002351</v>
       </c>
-      <c r="J16" s="108">
+      <c r="J16" s="99">
         <f>main!AB8</f>
         <v>0</v>
       </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="128"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="144" t="s">
+      <c r="K16" s="55"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="113"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="145">
+      <c r="C17" s="127">
         <f>main!Q10</f>
         <v>0</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="140">
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="122">
         <v>80002467</v>
       </c>
-      <c r="J17" s="108">
+      <c r="J17" s="99">
         <f>main!AB9</f>
         <v>0</v>
       </c>
-      <c r="K17" s="64"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="128"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="144" t="s">
+      <c r="K17" s="55"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="113"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="145">
+      <c r="C18" s="127">
         <f>main!Q11</f>
         <v>0</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="140">
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="122">
         <v>80002492</v>
       </c>
-      <c r="J18" s="108">
+      <c r="J18" s="99">
         <f>main!AB10</f>
         <v>0</v>
       </c>
-      <c r="K18" s="64"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="128"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="144" t="s">
+      <c r="K18" s="55"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="113"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="145">
+      <c r="C19" s="127">
         <f>main!Q12</f>
         <v>0</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="140">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="122">
         <v>80002715</v>
       </c>
-      <c r="J19" s="108">
+      <c r="J19" s="99">
         <f>main!AB11</f>
         <v>0</v>
       </c>
-      <c r="K19" s="64"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="128"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="144" t="s">
+      <c r="K19" s="55"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="113"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="145">
+      <c r="C20" s="127">
         <f>main!Q13</f>
         <v>0</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="140">
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="122">
         <v>80003383</v>
       </c>
-      <c r="J20" s="108">
+      <c r="J20" s="99">
         <f>main!AB12</f>
         <v>0</v>
       </c>
-      <c r="K20" s="64"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="128"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="146" t="s">
+      <c r="K20" s="55"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="113"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="145">
+      <c r="C21" s="127">
         <f>main!Q14</f>
         <v>0</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="140">
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="122">
         <v>80003473</v>
       </c>
-      <c r="J21" s="108">
+      <c r="J21" s="99">
         <f>main!AB13</f>
         <v>0</v>
       </c>
-      <c r="K21" s="64"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="128"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="146" t="s">
+      <c r="K21" s="55"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="113"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="145">
+      <c r="C22" s="127">
         <f>main!Q15</f>
         <v>0</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="140">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="122">
         <v>80003986</v>
       </c>
-      <c r="J22" s="108">
+      <c r="J22" s="99">
         <f>main!AB14</f>
         <v>0</v>
       </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="128"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="146" t="s">
+      <c r="K22" s="55"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="113"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="145">
+      <c r="C23" s="127">
         <f>main!Q16</f>
         <v>0</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="140">
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="122">
         <v>80003987</v>
       </c>
-      <c r="J23" s="108">
+      <c r="J23" s="99">
         <f>main!AB15</f>
         <v>0</v>
       </c>
-      <c r="K23" s="64"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="128"/>
-    </row>
-    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="147" t="s">
+      <c r="K23" s="55"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="113"/>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B24" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="148">
+      <c r="C24" s="130">
         <f>main!Q17</f>
         <v>0</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="141">
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="123">
         <v>80004384</v>
       </c>
-      <c r="J24" s="108">
+      <c r="J24" s="99">
         <f>main!AB16</f>
         <v>0</v>
       </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="128"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="79"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="141">
+      <c r="K24" s="55"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="113"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="70"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="123">
         <v>80004563</v>
       </c>
-      <c r="J25" s="108">
+      <c r="J25" s="99">
         <f>main!AB17</f>
         <v>0</v>
       </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="128"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="142">
+      <c r="K25" s="55"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="113"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B26" s="96"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="124">
         <v>80004564</v>
       </c>
-      <c r="J26" s="109">
+      <c r="J26" s="100">
         <f>main!AB18</f>
         <v>0</v>
       </c>
-      <c r="K26" s="106"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="130"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2793,14 +2730,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -2827,1357 +2764,2059 @@
     <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="39" thickBot="1">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="146"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="30" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="1:28" ht="52.5" customHeight="1" thickBot="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="148"/>
+      <c r="S2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="52">
-        <f>SUM(T2:AA2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="T2" s="39"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43">
+        <f t="shared" ref="AB2:AB13" si="0">SUM(T2:AA2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="52">
-        <f t="shared" ref="Q3:Q17" si="0">SUM(B3:P3)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="58">
+      <c r="B3" s="45">
+        <v>0</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0</v>
+      </c>
+      <c r="D3" s="41">
+        <v>0</v>
+      </c>
+      <c r="E3" s="41">
+        <v>0</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41">
+        <v>0</v>
+      </c>
+      <c r="J3" s="47">
+        <v>0</v>
+      </c>
+      <c r="K3" s="46">
+        <v>0</v>
+      </c>
+      <c r="L3" s="41">
+        <v>0</v>
+      </c>
+      <c r="M3" s="41">
+        <v>0</v>
+      </c>
+      <c r="N3" s="42">
+        <v>0</v>
+      </c>
+      <c r="O3" s="48">
+        <v>0</v>
+      </c>
+      <c r="P3" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="43">
+        <f t="shared" ref="Q3:Q16" si="1">SUM(B3:P3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="49">
         <v>80001849</v>
       </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="52">
-        <f>SUM(T3:AA3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="T3" s="50">
+        <v>0</v>
+      </c>
+      <c r="U3" s="51">
+        <v>0</v>
+      </c>
+      <c r="V3" s="51">
+        <v>0</v>
+      </c>
+      <c r="W3" s="51">
+        <v>0</v>
+      </c>
+      <c r="X3" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="52">
+      <c r="B4" s="54">
+        <v>0</v>
+      </c>
+      <c r="C4" s="50">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="55">
+        <v>0</v>
+      </c>
+      <c r="F4" s="51">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51">
+        <v>0</v>
+      </c>
+      <c r="H4" s="51">
+        <v>0</v>
+      </c>
+      <c r="I4" s="51">
+        <v>0</v>
+      </c>
+      <c r="J4" s="53">
+        <v>0</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0</v>
+      </c>
+      <c r="L4" s="51">
+        <v>0</v>
+      </c>
+      <c r="M4" s="51">
+        <v>0</v>
+      </c>
+      <c r="N4" s="53">
+        <v>0</v>
+      </c>
+      <c r="O4" s="56">
+        <v>0</v>
+      </c>
+      <c r="P4" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="49">
+        <v>80001952</v>
+      </c>
+      <c r="T4" s="57">
+        <v>0</v>
+      </c>
+      <c r="U4" s="51">
+        <v>0</v>
+      </c>
+      <c r="V4" s="51">
+        <v>0</v>
+      </c>
+      <c r="W4" s="51">
+        <v>0</v>
+      </c>
+      <c r="X4" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S4" s="58">
-        <v>80001952</v>
-      </c>
-      <c r="T4" s="66"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="52">
-        <f>SUM(T4:AA4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="52">
+      <c r="B5" s="54">
+        <v>0</v>
+      </c>
+      <c r="C5" s="50">
+        <v>0</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0</v>
+      </c>
+      <c r="F5" s="51">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="51">
+        <v>0</v>
+      </c>
+      <c r="I5" s="51">
+        <v>0</v>
+      </c>
+      <c r="J5" s="53">
+        <v>0</v>
+      </c>
+      <c r="K5" s="50">
+        <v>0</v>
+      </c>
+      <c r="L5" s="51">
+        <v>0</v>
+      </c>
+      <c r="M5" s="51">
+        <v>0</v>
+      </c>
+      <c r="N5" s="53">
+        <v>0</v>
+      </c>
+      <c r="O5" s="56">
+        <v>0</v>
+      </c>
+      <c r="P5" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="49">
+        <v>80002000</v>
+      </c>
+      <c r="T5" s="50">
+        <v>0</v>
+      </c>
+      <c r="U5" s="51">
+        <v>0</v>
+      </c>
+      <c r="V5" s="51">
+        <v>0</v>
+      </c>
+      <c r="W5" s="51">
+        <v>0</v>
+      </c>
+      <c r="X5" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S5" s="58">
-        <v>80002000</v>
-      </c>
-      <c r="T5" s="59"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="52">
-        <f>SUM(T5:AA5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="52">
+      <c r="B6" s="54">
+        <v>0</v>
+      </c>
+      <c r="C6" s="50">
+        <v>0</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0</v>
+      </c>
+      <c r="E6" s="51">
+        <v>0</v>
+      </c>
+      <c r="F6" s="51">
+        <v>0</v>
+      </c>
+      <c r="G6" s="51">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0</v>
+      </c>
+      <c r="I6" s="51">
+        <v>0</v>
+      </c>
+      <c r="J6" s="53">
+        <v>0</v>
+      </c>
+      <c r="K6" s="50">
+        <v>0</v>
+      </c>
+      <c r="L6" s="51">
+        <v>0</v>
+      </c>
+      <c r="M6" s="51">
+        <v>0</v>
+      </c>
+      <c r="N6" s="53">
+        <v>0</v>
+      </c>
+      <c r="O6" s="56">
+        <v>0</v>
+      </c>
+      <c r="P6" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="49">
+        <v>80002073</v>
+      </c>
+      <c r="T6" s="50">
+        <v>0</v>
+      </c>
+      <c r="U6" s="51">
+        <v>0</v>
+      </c>
+      <c r="V6" s="51">
+        <v>0</v>
+      </c>
+      <c r="W6" s="51">
+        <v>0</v>
+      </c>
+      <c r="X6" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="58">
-        <v>80002073</v>
-      </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="52">
-        <f>SUM(T6:AA6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="52">
+      <c r="B7" s="54">
+        <v>0</v>
+      </c>
+      <c r="C7" s="50">
+        <v>0</v>
+      </c>
+      <c r="D7" s="51">
+        <v>0</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0</v>
+      </c>
+      <c r="F7" s="51">
+        <v>0</v>
+      </c>
+      <c r="G7" s="51">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
+      <c r="I7" s="51">
+        <v>0</v>
+      </c>
+      <c r="J7" s="53">
+        <v>0</v>
+      </c>
+      <c r="K7" s="50">
+        <v>0</v>
+      </c>
+      <c r="L7" s="51">
+        <v>0</v>
+      </c>
+      <c r="M7" s="51">
+        <v>0</v>
+      </c>
+      <c r="N7" s="53">
+        <v>0</v>
+      </c>
+      <c r="O7" s="56">
+        <v>0</v>
+      </c>
+      <c r="P7" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="49">
+        <v>80002264</v>
+      </c>
+      <c r="T7" s="50">
+        <v>0</v>
+      </c>
+      <c r="U7" s="51">
+        <v>0</v>
+      </c>
+      <c r="V7" s="51">
+        <v>0</v>
+      </c>
+      <c r="W7" s="51">
+        <v>0</v>
+      </c>
+      <c r="X7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="58">
-        <v>80002264</v>
-      </c>
-      <c r="T7" s="59"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="52">
-        <f>SUM(T7:AA7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="52">
+      <c r="B8" s="59">
+        <v>0</v>
+      </c>
+      <c r="C8" s="50">
+        <v>0</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="51">
+        <v>0</v>
+      </c>
+      <c r="F8" s="51">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51">
+        <v>0</v>
+      </c>
+      <c r="I8" s="51">
+        <v>0</v>
+      </c>
+      <c r="J8" s="53">
+        <v>0</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0</v>
+      </c>
+      <c r="L8" s="51">
+        <v>0</v>
+      </c>
+      <c r="M8" s="51">
+        <v>0</v>
+      </c>
+      <c r="N8" s="53">
+        <v>0</v>
+      </c>
+      <c r="O8" s="56">
+        <v>0</v>
+      </c>
+      <c r="P8" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="49">
+        <v>80002351</v>
+      </c>
+      <c r="T8" s="50">
+        <v>0</v>
+      </c>
+      <c r="U8" s="51">
+        <v>0</v>
+      </c>
+      <c r="V8" s="51">
+        <v>0</v>
+      </c>
+      <c r="W8" s="51">
+        <v>0</v>
+      </c>
+      <c r="X8" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" s="58">
-        <v>80002351</v>
-      </c>
-      <c r="T8" s="59"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="52">
-        <f>SUM(T8:AA8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="52">
+      <c r="B9" s="54">
+        <v>0</v>
+      </c>
+      <c r="C9" s="50">
+        <v>0</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0</v>
+      </c>
+      <c r="E9" s="51">
+        <v>0</v>
+      </c>
+      <c r="F9" s="51">
+        <v>0</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0</v>
+      </c>
+      <c r="I9" s="51">
+        <v>0</v>
+      </c>
+      <c r="J9" s="53">
+        <v>0</v>
+      </c>
+      <c r="K9" s="50">
+        <v>0</v>
+      </c>
+      <c r="L9" s="51">
+        <v>0</v>
+      </c>
+      <c r="M9" s="51">
+        <v>0</v>
+      </c>
+      <c r="N9" s="53">
+        <v>0</v>
+      </c>
+      <c r="O9" s="56">
+        <v>0</v>
+      </c>
+      <c r="P9" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="49">
+        <v>80002467</v>
+      </c>
+      <c r="T9" s="50">
+        <v>0</v>
+      </c>
+      <c r="U9" s="51">
+        <v>0</v>
+      </c>
+      <c r="V9" s="51">
+        <v>0</v>
+      </c>
+      <c r="W9" s="51">
+        <v>0</v>
+      </c>
+      <c r="X9" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="58">
-        <v>80002467</v>
-      </c>
-      <c r="T9" s="59"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="52">
-        <f>SUM(T9:AA9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="52">
+      <c r="B10" s="54">
+        <v>0</v>
+      </c>
+      <c r="C10" s="50">
+        <v>0</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0</v>
+      </c>
+      <c r="E10" s="51">
+        <v>0</v>
+      </c>
+      <c r="F10" s="51">
+        <v>0</v>
+      </c>
+      <c r="G10" s="51">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51">
+        <v>0</v>
+      </c>
+      <c r="I10" s="51">
+        <v>0</v>
+      </c>
+      <c r="J10" s="53">
+        <v>0</v>
+      </c>
+      <c r="K10" s="50">
+        <v>0</v>
+      </c>
+      <c r="L10" s="51">
+        <v>0</v>
+      </c>
+      <c r="M10" s="51">
+        <v>0</v>
+      </c>
+      <c r="N10" s="53">
+        <v>0</v>
+      </c>
+      <c r="O10" s="56">
+        <v>0</v>
+      </c>
+      <c r="P10" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="49">
+        <v>80002492</v>
+      </c>
+      <c r="T10" s="57">
+        <v>0</v>
+      </c>
+      <c r="U10" s="51">
+        <v>0</v>
+      </c>
+      <c r="V10" s="51">
+        <v>0</v>
+      </c>
+      <c r="W10" s="51">
+        <v>0</v>
+      </c>
+      <c r="X10" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="58">
-        <v>80002492</v>
-      </c>
-      <c r="T10" s="66"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="52">
-        <f>SUM(T10:AA10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60">
-        <v>0</v>
-      </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="52">
+      <c r="B11" s="54">
+        <v>0</v>
+      </c>
+      <c r="C11" s="50">
+        <v>0</v>
+      </c>
+      <c r="D11" s="51">
+        <v>0</v>
+      </c>
+      <c r="E11" s="51">
+        <v>0</v>
+      </c>
+      <c r="F11" s="51">
+        <v>0</v>
+      </c>
+      <c r="G11" s="51">
+        <v>0</v>
+      </c>
+      <c r="H11" s="51">
+        <v>0</v>
+      </c>
+      <c r="I11" s="51">
+        <v>0</v>
+      </c>
+      <c r="J11" s="53">
+        <v>0</v>
+      </c>
+      <c r="K11" s="50">
+        <v>0</v>
+      </c>
+      <c r="L11" s="51">
+        <v>0</v>
+      </c>
+      <c r="M11" s="51">
+        <v>0</v>
+      </c>
+      <c r="N11" s="53">
+        <v>0</v>
+      </c>
+      <c r="O11" s="56">
+        <v>0</v>
+      </c>
+      <c r="P11" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="49">
+        <v>80002715</v>
+      </c>
+      <c r="T11" s="50">
+        <v>0</v>
+      </c>
+      <c r="U11" s="51">
+        <v>0</v>
+      </c>
+      <c r="V11" s="51">
+        <v>0</v>
+      </c>
+      <c r="W11" s="51">
+        <v>0</v>
+      </c>
+      <c r="X11" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="58">
-        <v>80002715</v>
-      </c>
-      <c r="T11" s="59"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="52">
-        <f>SUM(T11:AA11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="52">
+      <c r="B12" s="54">
+        <v>0</v>
+      </c>
+      <c r="C12" s="50">
+        <v>0</v>
+      </c>
+      <c r="D12" s="51">
+        <v>0</v>
+      </c>
+      <c r="E12" s="51">
+        <v>0</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0</v>
+      </c>
+      <c r="G12" s="51">
+        <v>0</v>
+      </c>
+      <c r="H12" s="51">
+        <v>0</v>
+      </c>
+      <c r="I12" s="51">
+        <v>0</v>
+      </c>
+      <c r="J12" s="53">
+        <v>0</v>
+      </c>
+      <c r="K12" s="50">
+        <v>0</v>
+      </c>
+      <c r="L12" s="51">
+        <v>0</v>
+      </c>
+      <c r="M12" s="51">
+        <v>0</v>
+      </c>
+      <c r="N12" s="53">
+        <v>0</v>
+      </c>
+      <c r="O12" s="56">
+        <v>0</v>
+      </c>
+      <c r="P12" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="49">
+        <v>80003383</v>
+      </c>
+      <c r="T12" s="50">
+        <v>0</v>
+      </c>
+      <c r="U12" s="51">
+        <v>0</v>
+      </c>
+      <c r="V12" s="51">
+        <v>0</v>
+      </c>
+      <c r="W12" s="51">
+        <v>0</v>
+      </c>
+      <c r="X12" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="58">
-        <v>80003383</v>
-      </c>
-      <c r="T12" s="59"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="52">
-        <f>SUM(T12:AA12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="52">
+      <c r="B13" s="54">
+        <v>0</v>
+      </c>
+      <c r="C13" s="50">
+        <v>0</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0</v>
+      </c>
+      <c r="E13" s="51">
+        <v>0</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0</v>
+      </c>
+      <c r="H13" s="51">
+        <v>0</v>
+      </c>
+      <c r="I13" s="51">
+        <v>0</v>
+      </c>
+      <c r="J13" s="53">
+        <v>0</v>
+      </c>
+      <c r="K13" s="50">
+        <v>0</v>
+      </c>
+      <c r="L13" s="51">
+        <v>0</v>
+      </c>
+      <c r="M13" s="51">
+        <v>0</v>
+      </c>
+      <c r="N13" s="53">
+        <v>0</v>
+      </c>
+      <c r="O13" s="60">
+        <v>0</v>
+      </c>
+      <c r="P13" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="49">
+        <v>80003473</v>
+      </c>
+      <c r="T13" s="50">
+        <v>0</v>
+      </c>
+      <c r="U13" s="51">
+        <v>0</v>
+      </c>
+      <c r="V13" s="51">
+        <v>0</v>
+      </c>
+      <c r="W13" s="51">
+        <v>0</v>
+      </c>
+      <c r="X13" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13" s="58">
-        <v>80003473</v>
-      </c>
-      <c r="T13" s="59"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="52">
-        <f>SUM(T13:AA13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="58">
+      <c r="B14" s="54">
+        <v>0</v>
+      </c>
+      <c r="C14" s="61">
+        <v>0</v>
+      </c>
+      <c r="D14" s="51">
+        <v>0</v>
+      </c>
+      <c r="E14" s="51">
+        <v>0</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0</v>
+      </c>
+      <c r="G14" s="51">
+        <v>0</v>
+      </c>
+      <c r="H14" s="51">
+        <v>0</v>
+      </c>
+      <c r="I14" s="51">
+        <v>0</v>
+      </c>
+      <c r="J14" s="53">
+        <v>0</v>
+      </c>
+      <c r="K14" s="50">
+        <v>0</v>
+      </c>
+      <c r="L14" s="51">
+        <v>0</v>
+      </c>
+      <c r="M14" s="51">
+        <v>0</v>
+      </c>
+      <c r="N14" s="53">
+        <v>0</v>
+      </c>
+      <c r="O14" s="56">
+        <v>0</v>
+      </c>
+      <c r="P14" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="49">
         <v>80003986</v>
       </c>
-      <c r="T14" s="59"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="52">
-        <f t="shared" ref="AB3:AB18" si="1">SUM(T14:AA14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="T14" s="50">
+        <v>0</v>
+      </c>
+      <c r="U14" s="51">
+        <v>0</v>
+      </c>
+      <c r="V14" s="51">
+        <v>0</v>
+      </c>
+      <c r="W14" s="51">
+        <v>0</v>
+      </c>
+      <c r="X14" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="43">
+        <f t="shared" ref="AB14" si="2">SUM(T14:AA14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="58">
+      <c r="B15" s="54">
+        <v>0</v>
+      </c>
+      <c r="C15" s="50">
+        <v>0</v>
+      </c>
+      <c r="D15" s="51">
+        <v>0</v>
+      </c>
+      <c r="E15" s="51">
+        <v>0</v>
+      </c>
+      <c r="F15" s="51">
+        <v>0</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0</v>
+      </c>
+      <c r="H15" s="51">
+        <v>0</v>
+      </c>
+      <c r="I15" s="51">
+        <v>0</v>
+      </c>
+      <c r="J15" s="53">
+        <v>0</v>
+      </c>
+      <c r="K15" s="50">
+        <v>0</v>
+      </c>
+      <c r="L15" s="51">
+        <v>0</v>
+      </c>
+      <c r="M15" s="51">
+        <v>0</v>
+      </c>
+      <c r="N15" s="53">
+        <v>0</v>
+      </c>
+      <c r="O15" s="56">
+        <v>0</v>
+      </c>
+      <c r="P15" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="49">
         <v>80003987</v>
       </c>
-      <c r="T15" s="59"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="52">
+      <c r="T15" s="50">
+        <v>0</v>
+      </c>
+      <c r="U15" s="51">
+        <v>0</v>
+      </c>
+      <c r="V15" s="51">
+        <v>0</v>
+      </c>
+      <c r="W15" s="51">
+        <v>0</v>
+      </c>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="43">
         <f>SUM(T15:AA15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:28">
+      <c r="A16" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="71">
+      <c r="B16" s="54">
+        <v>0</v>
+      </c>
+      <c r="C16" s="50">
+        <v>0</v>
+      </c>
+      <c r="D16" s="51">
+        <v>0</v>
+      </c>
+      <c r="E16" s="51">
+        <v>0</v>
+      </c>
+      <c r="F16" s="51">
+        <v>0</v>
+      </c>
+      <c r="G16" s="51">
+        <v>0</v>
+      </c>
+      <c r="H16" s="51">
+        <v>0</v>
+      </c>
+      <c r="I16" s="51">
+        <v>0</v>
+      </c>
+      <c r="J16" s="53">
+        <v>0</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0</v>
+      </c>
+      <c r="L16" s="51">
+        <v>0</v>
+      </c>
+      <c r="M16" s="51">
+        <v>0</v>
+      </c>
+      <c r="N16" s="53">
+        <v>0</v>
+      </c>
+      <c r="O16" s="56">
+        <v>0</v>
+      </c>
+      <c r="P16" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="62">
         <v>80004384</v>
       </c>
-      <c r="T16" s="59"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="52">
+      <c r="T16" s="50">
+        <v>0</v>
+      </c>
+      <c r="U16" s="51">
+        <v>0</v>
+      </c>
+      <c r="V16" s="51">
+        <v>0</v>
+      </c>
+      <c r="W16" s="51">
+        <v>0</v>
+      </c>
+      <c r="X16" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="51">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="43">
         <f>SUM(T16:AA16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A17" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="52">
+      <c r="B17" s="63">
+        <v>0</v>
+      </c>
+      <c r="C17" s="64">
+        <v>0</v>
+      </c>
+      <c r="D17" s="65">
+        <v>0</v>
+      </c>
+      <c r="E17" s="65">
+        <v>0</v>
+      </c>
+      <c r="F17" s="65">
+        <v>0</v>
+      </c>
+      <c r="G17" s="65">
+        <v>0</v>
+      </c>
+      <c r="H17" s="65">
+        <v>0</v>
+      </c>
+      <c r="I17" s="65">
+        <v>0</v>
+      </c>
+      <c r="J17" s="66">
+        <v>0</v>
+      </c>
+      <c r="K17" s="64">
+        <v>0</v>
+      </c>
+      <c r="L17" s="65">
+        <v>0</v>
+      </c>
+      <c r="M17" s="65">
+        <v>0</v>
+      </c>
+      <c r="N17" s="66">
+        <v>0</v>
+      </c>
+      <c r="O17" s="67">
+        <v>0</v>
+      </c>
+      <c r="P17" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="43">
         <f>SUM(B17:P17)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="71">
+      <c r="S17" s="62">
         <v>80004563</v>
       </c>
-      <c r="T17" s="70"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="52">
+      <c r="T17" s="61">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="43">
         <f>SUM(T17:AA17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="80"/>
-      <c r="Q18" s="81"/>
-      <c r="S18" s="82">
+    <row r="18" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="71"/>
+      <c r="Q18" s="72"/>
+      <c r="S18" s="73">
         <v>80004564</v>
       </c>
-      <c r="T18" s="83"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="52">
+      <c r="T18" s="74">
+        <v>0</v>
+      </c>
+      <c r="U18" s="75">
+        <v>0</v>
+      </c>
+      <c r="V18" s="75">
+        <v>0</v>
+      </c>
+      <c r="W18" s="75">
+        <v>0</v>
+      </c>
+      <c r="X18" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="75">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="75">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="76">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="43">
         <f>SUM(T18:AA18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="89"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="80"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C20" s="79"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="93"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="80"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C21" s="79"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="93"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="80"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C22" s="79"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="93"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="80"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C23" s="79"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="93"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="80"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C24" s="79"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="93"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="80"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C25" s="79"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="93"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="80"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C26" s="79"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="93"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="80"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C27" s="79"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="93"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="80"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C28" s="79"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="93"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="80"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C29" s="79"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="93"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="80"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C30" s="79"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="93"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="80"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C31" s="79"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="93"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="80"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C32" s="79"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="93"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="80"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C33" s="79"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="93"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="80"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C34" s="79"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="93"/>
-      <c r="T34" s="79"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="80"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C35" s="79"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="93"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="80"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C36" s="79"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="93"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="80"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C37" s="79"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="80"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="80"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C38" s="79"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="80"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="80"/>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="79"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="80"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="64"/>
-      <c r="AA39" s="80"/>
-    </row>
-    <row r="40" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94" t="s">
+    <row r="19" spans="1:28">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="80"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="71"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="C20" s="70"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="71"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="C21" s="70"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="84"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="71"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="C22" s="70"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="84"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="71"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="C23" s="70"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="84"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="71"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="C24" s="70"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="84"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="71"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="C25" s="70"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="84"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="71"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="C26" s="70"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="84"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="71"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="C27" s="70"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="84"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="71"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="C28" s="70"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="84"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="71"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="C29" s="70"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="84"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="71"/>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="C30" s="70"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="84"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="71"/>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="C31" s="70"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="84"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="71"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="C32" s="70"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="84"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="71"/>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="C33" s="70"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="84"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="71"/>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="C34" s="70"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="84"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="71"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="C35" s="70"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="84"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="71"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="C36" s="70"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="84"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="71"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="C37" s="70"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="71"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="71"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="C38" s="70"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="71"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="71"/>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" thickBot="1">
+      <c r="C39" s="70"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="71"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="55"/>
+      <c r="AA39" s="71"/>
+    </row>
+    <row r="40" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A40" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="95">
-        <f t="shared" ref="B40:P40" si="2">SUM(B3:B17)</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="96">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="98">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="96">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="98">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="99">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="100">
+      <c r="B40" s="86">
+        <f t="shared" ref="B40:P40" si="3">SUM(B3:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="91">
         <f>SUM(B40:P40)</f>
         <v>0</v>
       </c>
-      <c r="S40" s="94" t="s">
+      <c r="S40" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="T40" s="101">
-        <f t="shared" ref="T40:AA40" si="3">SUM(T2:T16)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="104">
+      <c r="T40" s="92">
+        <f t="shared" ref="T40:AA40" si="4">SUM(T2:T16)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="95">
         <f>SUM(T40:AA40)-Z40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="105"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="107" t="s">
+    <row r="41" spans="1:28" ht="16.5" thickBot="1">
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="106" t="s">
+      <c r="I41" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="100">
+      <c r="J41" s="91">
         <f>SUM(C40:J40)+O40+P40-I40</f>
         <v>0</v>
       </c>
-      <c r="K41" s="105"/>
-      <c r="L41" s="107" t="s">
+      <c r="K41" s="96"/>
+      <c r="L41" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="M41" s="106" t="s">
+      <c r="M41" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="100">
+      <c r="N41" s="91">
         <f>SUM(K40:M40)</f>
         <v>0</v>
       </c>

--- a/files/DownTime_shift.xlsx
+++ b/files/DownTime_shift.xlsx
@@ -388,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -960,17 +960,6 @@
       <top/>
       <bottom style="thin">
         <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,7 +1249,7 @@
     <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="25" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1269,13 +1258,12 @@
     <xf applyAlignment="1" borderId="25" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="35" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1298,6 +1286,7 @@
     <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="32" fillId="4" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1311,7 +1300,7 @@
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="46" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1624,7 +1613,7 @@
   <dimension ref="B4:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1658,11 +1647,11 @@
       <c r="N4" s="66" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="5" s="125" spans="1:17" thickBot="1">
-      <c r="B5" s="116" t="n"/>
-      <c r="C5" s="118" t="s">
+      <c r="B5" s="115" t="n"/>
+      <c r="C5" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="118" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="111" t="s">
@@ -1695,14 +1684,14 @@
       <c r="N5" s="66" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="6" s="125" spans="1:17" thickBot="1">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="121">
+      <c r="C6" s="120">
         <f>main!J41</f>
         <v/>
       </c>
-      <c r="D6" s="122">
+      <c r="D6" s="121">
         <f>main!I40</f>
         <v/>
       </c>
@@ -1743,10 +1732,10 @@
       <c r="N6" s="66" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="7" s="125" spans="1:17" thickBot="1">
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="117">
+      <c r="C7" s="116">
         <f>main!N41</f>
         <v/>
       </c>
@@ -2147,7 +2136,7 @@
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -3478,10 +3467,10 @@
         <v>69</v>
       </c>
       <c r="B17" s="91" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C17" s="92" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D17" s="93" t="n">
         <v>0</v>
@@ -3490,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="93" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="G17" s="93" t="n">
         <v>0</v>

--- a/files/DownTime_shift.xlsx
+++ b/files/DownTime_shift.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="28455" windowHeight="11445" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="28455" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>KOMAX</t>
   </si>
@@ -179,6 +179,9 @@
     <t>налаштування принтера</t>
   </si>
   <si>
+    <t>*80000067</t>
+  </si>
+  <si>
     <t>*80001235</t>
   </si>
   <si>
@@ -191,39 +194,75 @@
     <t>*80001952</t>
   </si>
   <si>
+    <t>*80003446</t>
+  </si>
+  <si>
     <t>*80002000</t>
   </si>
   <si>
+    <t>*80004403</t>
+  </si>
+  <si>
     <t>*80002073</t>
   </si>
   <si>
+    <t>*80001965</t>
+  </si>
+  <si>
     <t>*80002264</t>
   </si>
   <si>
+    <t>*80002099</t>
+  </si>
+  <si>
     <t>*80002351</t>
   </si>
   <si>
+    <t>*80001869</t>
+  </si>
+  <si>
     <t>*80002467</t>
   </si>
   <si>
+    <t>*80002903</t>
+  </si>
+  <si>
     <t>*80002492</t>
   </si>
   <si>
+    <t>*80002255</t>
+  </si>
+  <si>
     <t>*80002715</t>
   </si>
   <si>
+    <t>*80002290</t>
+  </si>
+  <si>
     <t>*80003383</t>
   </si>
   <si>
+    <t>*80002352</t>
+  </si>
+  <si>
     <t>*80003473</t>
   </si>
   <si>
+    <t>*80003934</t>
+  </si>
+  <si>
     <t>*80003986</t>
   </si>
   <si>
+    <t>*80003929</t>
+  </si>
+  <si>
     <t>*80003987</t>
   </si>
   <si>
+    <t>*80004194</t>
+  </si>
+  <si>
     <t>*80004384</t>
   </si>
   <si>
@@ -240,9 +279,6 @@
   </si>
   <si>
     <t>komax</t>
-  </si>
-  <si>
-    <t>*80000067</t>
   </si>
 </sst>
 </file>
@@ -394,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -894,19 +930,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -998,7 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,19 +1140,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1144,10 +1160,10 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1255,7 +1271,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,7 +1280,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1318,6 +1334,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Звичайний 3" xfId="1"/>
@@ -1331,7 +1348,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Стандартна">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1369,7 +1386,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Стандартна">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1403,6 +1420,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1437,9 +1455,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Стандартна">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1615,79 +1634,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="123" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="123" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="123" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="123" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="123" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="123" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="123" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="123" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="123" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="123" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="123" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="123" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="116" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="116" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="116" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="116" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="116" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="116" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="116" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="116" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="116" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="116" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="116" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="116" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="128" t="s">
+      <c r="B4" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="129" t="s">
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="125"/>
-      <c r="N4" s="66"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="115"/>
-      <c r="C5" s="117" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="106" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1702,99 +1721,99 @@
       <c r="K5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="108" t="s">
+      <c r="M5" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="66"/>
+      <c r="N5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="113">
         <f>main!J41</f>
         <v>12</v>
       </c>
-      <c r="D6" s="121">
+      <c r="D6" s="114">
         <f>main!I40</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="124">
+        <v>12</v>
+      </c>
+      <c r="E6" s="117">
         <f>main!Q40</f>
-        <v>18</v>
-      </c>
-      <c r="F6" s="126">
+        <v>32</v>
+      </c>
+      <c r="F6" s="119">
         <f>E6/G6</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G6" s="127">
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="G6" s="120">
         <v>7200</v>
       </c>
       <c r="H6" s="5">
         <f>main!AB40</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I6" s="6">
         <f>main!Z40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="7">
         <f>(I6+H6)/K6</f>
-        <v>0</v>
+        <v>1.6927083333333334E-3</v>
       </c>
       <c r="K6" s="8">
         <v>7680</v>
       </c>
-      <c r="L6" s="110">
+      <c r="L6" s="103">
         <f>H6+E6</f>
-        <v>18</v>
-      </c>
-      <c r="M6" s="109">
+        <v>44</v>
+      </c>
+      <c r="M6" s="102">
         <f>(E6+H6+I6)/(K6+G6)</f>
-        <v>1.2096774193548388E-3</v>
-      </c>
-      <c r="N6" s="66"/>
+        <v>3.0241935483870967E-3</v>
+      </c>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="116">
+      <c r="C7" s="109">
         <f>main!N41</f>
         <v>3</v>
       </c>
       <c r="D7" s="4">
         <f>main!N40</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="66"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="59"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="36"/>
       <c r="G8" s="37"/>
       <c r="H8" s="36"/>
-      <c r="J8" s="106" t="s">
+      <c r="J8" s="99" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="37"/>
-      <c r="N8" s="66"/>
-      <c r="Q8" s="67"/>
+      <c r="N8" s="59"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="36"/>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="99" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="37"/>
@@ -1807,340 +1826,340 @@
         <v>0</v>
       </c>
       <c r="K9" s="37"/>
-      <c r="N9" s="66"/>
+      <c r="N9" s="59"/>
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="36"/>
       <c r="C10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="64">
         <f>main!Q3</f>
         <v>0</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="69">
+      <c r="I10" s="62">
         <v>80001849</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="54">
         <f>main!AB3</f>
         <v>0</v>
       </c>
       <c r="K10" s="37"/>
-      <c r="N10" s="66"/>
+      <c r="N10" s="59"/>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="36"/>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="65">
         <f>main!Q4</f>
         <v>0</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="69">
+      <c r="I11" s="62">
         <v>80001952</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="54">
         <f>main!AB4</f>
         <v>0</v>
       </c>
       <c r="K11" s="37"/>
-      <c r="N11" s="66"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="36"/>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="65">
         <f>main!Q5</f>
         <v>0</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="69">
+      <c r="I12" s="62">
         <v>80002000</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="54">
         <f>main!AB5</f>
         <v>0</v>
       </c>
       <c r="K12" s="37"/>
-      <c r="N12" s="66"/>
+      <c r="N12" s="59"/>
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="36"/>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="65">
         <f>main!Q6</f>
         <v>0</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="69">
+      <c r="I13" s="62">
         <v>80002073</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="54">
         <f>main!AB6</f>
         <v>0</v>
       </c>
       <c r="K13" s="37"/>
-      <c r="N13" s="66"/>
+      <c r="N13" s="59"/>
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="36"/>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="65">
         <f>main!Q7</f>
         <v>0</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="69">
+      <c r="I14" s="62">
         <v>80002264</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="54">
         <f>main!AB7</f>
         <v>0</v>
       </c>
       <c r="K14" s="37"/>
-      <c r="N14" s="66"/>
+      <c r="N14" s="59"/>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="36"/>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="65">
         <f>main!Q8</f>
         <v>0</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="69">
+      <c r="I15" s="62">
         <v>80002351</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="54">
         <f>main!AB8</f>
         <v>0</v>
       </c>
       <c r="K15" s="37"/>
-      <c r="N15" s="66"/>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" spans="1:17">
       <c r="B16" s="36"/>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="65">
         <f>main!Q9</f>
         <v>0</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="69">
+      <c r="I16" s="62">
         <v>80002467</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="54">
         <f>main!AB9</f>
         <v>0</v>
       </c>
       <c r="K16" s="37"/>
-      <c r="N16" s="66"/>
+      <c r="N16" s="59"/>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="36"/>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="65">
         <f>main!Q10</f>
         <v>0</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="69">
+      <c r="I17" s="62">
         <v>80002492</v>
       </c>
-      <c r="J17" s="61">
+      <c r="J17" s="54">
         <f>main!AB10</f>
         <v>0</v>
       </c>
       <c r="K17" s="37"/>
-      <c r="N17" s="66"/>
+      <c r="N17" s="59"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="36"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="65">
         <f>main!Q11</f>
         <v>0</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="69">
+      <c r="I18" s="62">
         <v>80002715</v>
       </c>
-      <c r="J18" s="61">
+      <c r="J18" s="54">
         <f>main!AB11</f>
         <v>0</v>
       </c>
       <c r="K18" s="37"/>
-      <c r="N18" s="66"/>
+      <c r="N18" s="59"/>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="36"/>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="65">
         <f>main!Q12</f>
         <v>0</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="36"/>
-      <c r="I19" s="69">
+      <c r="I19" s="62">
         <v>80003383</v>
       </c>
-      <c r="J19" s="61">
+      <c r="J19" s="54">
         <f>main!AB12</f>
         <v>0</v>
       </c>
       <c r="K19" s="37"/>
-      <c r="N19" s="66"/>
+      <c r="N19" s="59"/>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="36"/>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="65">
         <f>main!Q13</f>
         <v>0</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="69">
+      <c r="I20" s="62">
         <v>80003473</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20" s="54">
         <f>main!AB13</f>
         <v>0</v>
       </c>
       <c r="K20" s="37"/>
-      <c r="N20" s="66"/>
+      <c r="N20" s="59"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="36"/>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="65">
         <f>main!Q14</f>
         <v>0</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="69">
+      <c r="I21" s="62">
         <v>80003986</v>
       </c>
-      <c r="J21" s="61">
+      <c r="J21" s="54">
         <f>main!AB14</f>
         <v>0</v>
       </c>
       <c r="K21" s="37"/>
-      <c r="N21" s="66"/>
+      <c r="N21" s="59"/>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="36"/>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="65">
         <f>main!Q15</f>
         <v>0</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="69">
+      <c r="I22" s="62">
         <v>80003987</v>
       </c>
-      <c r="J22" s="61">
+      <c r="J22" s="54">
         <f>main!AB15</f>
         <v>0</v>
       </c>
       <c r="K22" s="37"/>
-      <c r="N22" s="66"/>
+      <c r="N22" s="59"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" customHeight="1">
       <c r="B23" s="36"/>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="65">
         <f>main!Q16</f>
         <v>0</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="36"/>
-      <c r="I23" s="69">
+      <c r="I23" s="62">
         <v>80004384</v>
       </c>
-      <c r="J23" s="61">
+      <c r="J23" s="54">
         <f>main!AB16</f>
         <v>0</v>
       </c>
       <c r="K23" s="37"/>
-      <c r="N23" s="66"/>
+      <c r="N23" s="59"/>
     </row>
     <row r="24" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="B24" s="36"/>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="114">
+      <c r="D24" s="107">
         <f>main!Q17</f>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="36"/>
-      <c r="I24" s="69">
+      <c r="I24" s="62">
         <v>80004563</v>
       </c>
-      <c r="J24" s="61">
+      <c r="J24" s="54">
         <f>main!AB17</f>
         <v>0</v>
       </c>
       <c r="K24" s="37"/>
-      <c r="N24" s="66"/>
+      <c r="N24" s="59"/>
     </row>
     <row r="25" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="70">
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="63">
         <v>80004564</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="55">
         <f>main!AB18</f>
         <v>13</v>
       </c>
-      <c r="K25" s="65"/>
-      <c r="N25" s="68"/>
+      <c r="K25" s="58"/>
+      <c r="N25" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2161,59 +2180,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="123" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="123" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="123" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="123" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="123" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="123" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="123" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="123" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="123" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="123" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="123" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="123" customWidth="1"/>
-    <col min="17" max="17" width="6" style="123" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" style="123" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="123" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" style="123" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" style="123" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="123" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" style="123" customWidth="1"/>
-    <col min="24" max="24" width="9" style="123" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="123" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="123" customWidth="1"/>
-    <col min="28" max="28" width="6" style="123" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="116" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="116" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="116" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="116" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="116" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="116" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="116" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="116" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="116" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="116" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="116" customWidth="1"/>
+    <col min="17" max="17" width="6" style="116" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" style="116" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="116" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="116" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="116" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="116" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" style="116" customWidth="1"/>
+    <col min="24" max="24" width="9" style="116" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="116" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" style="116" customWidth="1"/>
+    <col min="28" max="28" width="6" style="116" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39" customHeight="1" thickBot="1">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="131" t="s">
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
-      <c r="Q1" s="132" t="s">
+      <c r="Q1" s="125" t="s">
         <v>31</v>
       </c>
       <c r="S1" s="11"/>
@@ -2292,9 +2311,9 @@
       <c r="P2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="125"/>
+      <c r="Q2" s="118"/>
       <c r="S2" s="27" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="T2" s="28">
         <v>0</v>
@@ -2327,51 +2346,51 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="75">
-        <v>0</v>
-      </c>
-      <c r="C3" s="76">
-        <v>0</v>
-      </c>
-      <c r="D3" s="77">
-        <v>0</v>
-      </c>
-      <c r="E3" s="77">
-        <v>0</v>
-      </c>
-      <c r="F3" s="77">
-        <v>0</v>
-      </c>
-      <c r="G3" s="77">
-        <v>0</v>
-      </c>
-      <c r="H3" s="77">
-        <v>0</v>
-      </c>
-      <c r="I3" s="77">
-        <v>0</v>
-      </c>
-      <c r="J3" s="78">
-        <v>0</v>
-      </c>
-      <c r="K3" s="76">
-        <v>0</v>
-      </c>
-      <c r="L3" s="77">
-        <v>0</v>
-      </c>
-      <c r="M3" s="77">
-        <v>0</v>
-      </c>
-      <c r="N3" s="79">
-        <v>0</v>
-      </c>
-      <c r="O3" s="80">
-        <v>0</v>
-      </c>
-      <c r="P3" s="79">
+        <v>55</v>
+      </c>
+      <c r="B3" s="68">
+        <v>0</v>
+      </c>
+      <c r="C3" s="69">
+        <v>0</v>
+      </c>
+      <c r="D3" s="70">
+        <v>0</v>
+      </c>
+      <c r="E3" s="70">
+        <v>0</v>
+      </c>
+      <c r="F3" s="70">
+        <v>0</v>
+      </c>
+      <c r="G3" s="70">
+        <v>0</v>
+      </c>
+      <c r="H3" s="70">
+        <v>0</v>
+      </c>
+      <c r="I3" s="70">
+        <v>0</v>
+      </c>
+      <c r="J3" s="71">
+        <v>0</v>
+      </c>
+      <c r="K3" s="69">
+        <v>0</v>
+      </c>
+      <c r="L3" s="70">
+        <v>0</v>
+      </c>
+      <c r="M3" s="70">
+        <v>0</v>
+      </c>
+      <c r="N3" s="72">
+        <v>0</v>
+      </c>
+      <c r="O3" s="73">
+        <v>0</v>
+      </c>
+      <c r="P3" s="72">
         <v>0</v>
       </c>
       <c r="Q3" s="32">
@@ -2379,30 +2398,30 @@
         <v>0</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="82">
-        <v>0</v>
-      </c>
-      <c r="U3" s="85">
-        <v>0</v>
-      </c>
-      <c r="V3" s="85">
-        <v>0</v>
-      </c>
-      <c r="W3" s="85">
-        <v>0</v>
-      </c>
-      <c r="X3" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="96">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="86">
+        <v>56</v>
+      </c>
+      <c r="T3" s="75">
+        <v>0</v>
+      </c>
+      <c r="U3" s="78">
+        <v>0</v>
+      </c>
+      <c r="V3" s="78">
+        <v>0</v>
+      </c>
+      <c r="W3" s="78">
+        <v>0</v>
+      </c>
+      <c r="X3" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="79">
         <v>0</v>
       </c>
       <c r="AB3" s="32">
@@ -2412,51 +2431,51 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="81">
-        <v>0</v>
-      </c>
-      <c r="C4" s="82">
-        <v>0</v>
-      </c>
-      <c r="D4" s="83">
-        <v>0</v>
-      </c>
-      <c r="E4" s="84">
-        <v>0</v>
-      </c>
-      <c r="F4" s="85">
-        <v>0</v>
-      </c>
-      <c r="G4" s="85">
-        <v>0</v>
-      </c>
-      <c r="H4" s="85">
-        <v>0</v>
-      </c>
-      <c r="I4" s="85">
-        <v>0</v>
-      </c>
-      <c r="J4" s="86">
-        <v>0</v>
-      </c>
-      <c r="K4" s="82">
-        <v>0</v>
-      </c>
-      <c r="L4" s="85">
-        <v>0</v>
-      </c>
-      <c r="M4" s="85">
-        <v>0</v>
-      </c>
-      <c r="N4" s="86">
-        <v>0</v>
-      </c>
-      <c r="O4" s="87">
-        <v>0</v>
-      </c>
-      <c r="P4" s="86">
+        <v>57</v>
+      </c>
+      <c r="B4" s="74">
+        <v>0</v>
+      </c>
+      <c r="C4" s="75">
+        <v>0</v>
+      </c>
+      <c r="D4" s="76">
+        <v>0</v>
+      </c>
+      <c r="E4" s="77">
+        <v>0</v>
+      </c>
+      <c r="F4" s="78">
+        <v>0</v>
+      </c>
+      <c r="G4" s="78">
+        <v>0</v>
+      </c>
+      <c r="H4" s="78">
+        <v>0</v>
+      </c>
+      <c r="I4" s="78">
+        <v>0</v>
+      </c>
+      <c r="J4" s="79">
+        <v>0</v>
+      </c>
+      <c r="K4" s="75">
+        <v>0</v>
+      </c>
+      <c r="L4" s="78">
+        <v>0</v>
+      </c>
+      <c r="M4" s="78">
+        <v>0</v>
+      </c>
+      <c r="N4" s="79">
+        <v>0</v>
+      </c>
+      <c r="O4" s="80">
+        <v>0</v>
+      </c>
+      <c r="P4" s="79">
         <v>0</v>
       </c>
       <c r="Q4" s="32">
@@ -2464,30 +2483,30 @@
         <v>0</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="97">
-        <v>0</v>
-      </c>
-      <c r="U4" s="85">
-        <v>0</v>
-      </c>
-      <c r="V4" s="85">
-        <v>0</v>
-      </c>
-      <c r="W4" s="85">
-        <v>0</v>
-      </c>
-      <c r="X4" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="96">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="86">
+        <v>58</v>
+      </c>
+      <c r="T4" s="90">
+        <v>0</v>
+      </c>
+      <c r="U4" s="78">
+        <v>0</v>
+      </c>
+      <c r="V4" s="78">
+        <v>0</v>
+      </c>
+      <c r="W4" s="78">
+        <v>0</v>
+      </c>
+      <c r="X4" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="79">
         <v>0</v>
       </c>
       <c r="AB4" s="32">
@@ -2497,51 +2516,51 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="81">
-        <v>0</v>
-      </c>
-      <c r="C5" s="82">
-        <v>0</v>
-      </c>
-      <c r="D5" s="85">
-        <v>0</v>
-      </c>
-      <c r="E5" s="85">
-        <v>0</v>
-      </c>
-      <c r="F5" s="85">
-        <v>0</v>
-      </c>
-      <c r="G5" s="85">
-        <v>0</v>
-      </c>
-      <c r="H5" s="85">
-        <v>0</v>
-      </c>
-      <c r="I5" s="85">
-        <v>0</v>
-      </c>
-      <c r="J5" s="86">
-        <v>0</v>
-      </c>
-      <c r="K5" s="82">
-        <v>0</v>
-      </c>
-      <c r="L5" s="85">
-        <v>0</v>
-      </c>
-      <c r="M5" s="85">
-        <v>0</v>
-      </c>
-      <c r="N5" s="86">
-        <v>0</v>
-      </c>
-      <c r="O5" s="87">
-        <v>0</v>
-      </c>
-      <c r="P5" s="86">
+        <v>59</v>
+      </c>
+      <c r="B5" s="74">
+        <v>0</v>
+      </c>
+      <c r="C5" s="75">
+        <v>0</v>
+      </c>
+      <c r="D5" s="78">
+        <v>0</v>
+      </c>
+      <c r="E5" s="78">
+        <v>0</v>
+      </c>
+      <c r="F5" s="78">
+        <v>0</v>
+      </c>
+      <c r="G5" s="78">
+        <v>0</v>
+      </c>
+      <c r="H5" s="78">
+        <v>0</v>
+      </c>
+      <c r="I5" s="78">
+        <v>0</v>
+      </c>
+      <c r="J5" s="79">
+        <v>0</v>
+      </c>
+      <c r="K5" s="75">
+        <v>0</v>
+      </c>
+      <c r="L5" s="78">
+        <v>0</v>
+      </c>
+      <c r="M5" s="78">
+        <v>0</v>
+      </c>
+      <c r="N5" s="79">
+        <v>0</v>
+      </c>
+      <c r="O5" s="80">
+        <v>0</v>
+      </c>
+      <c r="P5" s="79">
         <v>0</v>
       </c>
       <c r="Q5" s="32">
@@ -2549,30 +2568,30 @@
         <v>0</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" s="82">
-        <v>0</v>
-      </c>
-      <c r="U5" s="85">
-        <v>0</v>
-      </c>
-      <c r="V5" s="85">
-        <v>0</v>
-      </c>
-      <c r="W5" s="85">
-        <v>0</v>
-      </c>
-      <c r="X5" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="96">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="86">
+        <v>60</v>
+      </c>
+      <c r="T5" s="75">
+        <v>0</v>
+      </c>
+      <c r="U5" s="78">
+        <v>0</v>
+      </c>
+      <c r="V5" s="78">
+        <v>0</v>
+      </c>
+      <c r="W5" s="78">
+        <v>0</v>
+      </c>
+      <c r="X5" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="79">
         <v>0</v>
       </c>
       <c r="AB5" s="32">
@@ -2582,51 +2601,51 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="81">
-        <v>0</v>
-      </c>
-      <c r="C6" s="82">
-        <v>0</v>
-      </c>
-      <c r="D6" s="85">
-        <v>0</v>
-      </c>
-      <c r="E6" s="85">
-        <v>0</v>
-      </c>
-      <c r="F6" s="85">
-        <v>0</v>
-      </c>
-      <c r="G6" s="85">
-        <v>0</v>
-      </c>
-      <c r="H6" s="85">
-        <v>0</v>
-      </c>
-      <c r="I6" s="85">
-        <v>0</v>
-      </c>
-      <c r="J6" s="86">
-        <v>0</v>
-      </c>
-      <c r="K6" s="82">
-        <v>0</v>
-      </c>
-      <c r="L6" s="85">
-        <v>0</v>
-      </c>
-      <c r="M6" s="85">
-        <v>0</v>
-      </c>
-      <c r="N6" s="86">
-        <v>0</v>
-      </c>
-      <c r="O6" s="87">
-        <v>0</v>
-      </c>
-      <c r="P6" s="86">
+        <v>61</v>
+      </c>
+      <c r="B6" s="74">
+        <v>0</v>
+      </c>
+      <c r="C6" s="75">
+        <v>0</v>
+      </c>
+      <c r="D6" s="78">
+        <v>0</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0</v>
+      </c>
+      <c r="F6" s="78">
+        <v>0</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0</v>
+      </c>
+      <c r="H6" s="78">
+        <v>0</v>
+      </c>
+      <c r="I6" s="78">
+        <v>0</v>
+      </c>
+      <c r="J6" s="79">
+        <v>0</v>
+      </c>
+      <c r="K6" s="75">
+        <v>0</v>
+      </c>
+      <c r="L6" s="78">
+        <v>0</v>
+      </c>
+      <c r="M6" s="78">
+        <v>0</v>
+      </c>
+      <c r="N6" s="79">
+        <v>0</v>
+      </c>
+      <c r="O6" s="80">
+        <v>0</v>
+      </c>
+      <c r="P6" s="79">
         <v>0</v>
       </c>
       <c r="Q6" s="32">
@@ -2634,30 +2653,30 @@
         <v>0</v>
       </c>
       <c r="S6" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="T6" s="82">
-        <v>0</v>
-      </c>
-      <c r="U6" s="85">
-        <v>0</v>
-      </c>
-      <c r="V6" s="85">
-        <v>0</v>
-      </c>
-      <c r="W6" s="85">
-        <v>0</v>
-      </c>
-      <c r="X6" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="86">
+        <v>62</v>
+      </c>
+      <c r="T6" s="75">
+        <v>0</v>
+      </c>
+      <c r="U6" s="78">
+        <v>0</v>
+      </c>
+      <c r="V6" s="78">
+        <v>0</v>
+      </c>
+      <c r="W6" s="78">
+        <v>0</v>
+      </c>
+      <c r="X6" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="79">
         <v>0</v>
       </c>
       <c r="AB6" s="32">
@@ -2667,51 +2686,51 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="81">
-        <v>0</v>
-      </c>
-      <c r="C7" s="82">
-        <v>0</v>
-      </c>
-      <c r="D7" s="85">
-        <v>0</v>
-      </c>
-      <c r="E7" s="85">
-        <v>0</v>
-      </c>
-      <c r="F7" s="85">
-        <v>0</v>
-      </c>
-      <c r="G7" s="85">
-        <v>0</v>
-      </c>
-      <c r="H7" s="85">
-        <v>0</v>
-      </c>
-      <c r="I7" s="85">
-        <v>0</v>
-      </c>
-      <c r="J7" s="86">
-        <v>0</v>
-      </c>
-      <c r="K7" s="82">
-        <v>0</v>
-      </c>
-      <c r="L7" s="85">
-        <v>0</v>
-      </c>
-      <c r="M7" s="85">
-        <v>0</v>
-      </c>
-      <c r="N7" s="86">
-        <v>0</v>
-      </c>
-      <c r="O7" s="87">
-        <v>0</v>
-      </c>
-      <c r="P7" s="86">
+        <v>63</v>
+      </c>
+      <c r="B7" s="74">
+        <v>0</v>
+      </c>
+      <c r="C7" s="75">
+        <v>0</v>
+      </c>
+      <c r="D7" s="78">
+        <v>0</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="78">
+        <v>0</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0</v>
+      </c>
+      <c r="H7" s="78">
+        <v>0</v>
+      </c>
+      <c r="I7" s="78">
+        <v>0</v>
+      </c>
+      <c r="J7" s="79">
+        <v>0</v>
+      </c>
+      <c r="K7" s="75">
+        <v>0</v>
+      </c>
+      <c r="L7" s="78">
+        <v>0</v>
+      </c>
+      <c r="M7" s="78">
+        <v>0</v>
+      </c>
+      <c r="N7" s="79">
+        <v>0</v>
+      </c>
+      <c r="O7" s="80">
+        <v>0</v>
+      </c>
+      <c r="P7" s="79">
         <v>0</v>
       </c>
       <c r="Q7" s="32">
@@ -2719,30 +2738,30 @@
         <v>0</v>
       </c>
       <c r="S7" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="82">
-        <v>0</v>
-      </c>
-      <c r="U7" s="85">
-        <v>0</v>
-      </c>
-      <c r="V7" s="85">
-        <v>0</v>
-      </c>
-      <c r="W7" s="85">
-        <v>0</v>
-      </c>
-      <c r="X7" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="86">
+        <v>64</v>
+      </c>
+      <c r="T7" s="75">
+        <v>0</v>
+      </c>
+      <c r="U7" s="78">
+        <v>0</v>
+      </c>
+      <c r="V7" s="78">
+        <v>0</v>
+      </c>
+      <c r="W7" s="78">
+        <v>0</v>
+      </c>
+      <c r="X7" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="79">
         <v>0</v>
       </c>
       <c r="AB7" s="32">
@@ -2752,51 +2771,51 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="88">
-        <v>0</v>
-      </c>
-      <c r="C8" s="82">
-        <v>0</v>
-      </c>
-      <c r="D8" s="85">
-        <v>0</v>
-      </c>
-      <c r="E8" s="85">
-        <v>0</v>
-      </c>
-      <c r="F8" s="85">
-        <v>0</v>
-      </c>
-      <c r="G8" s="85">
-        <v>0</v>
-      </c>
-      <c r="H8" s="85">
-        <v>0</v>
-      </c>
-      <c r="I8" s="85">
-        <v>0</v>
-      </c>
-      <c r="J8" s="86">
-        <v>0</v>
-      </c>
-      <c r="K8" s="82">
-        <v>0</v>
-      </c>
-      <c r="L8" s="85">
-        <v>0</v>
-      </c>
-      <c r="M8" s="85">
-        <v>0</v>
-      </c>
-      <c r="N8" s="86">
-        <v>0</v>
-      </c>
-      <c r="O8" s="87">
-        <v>0</v>
-      </c>
-      <c r="P8" s="86">
+        <v>65</v>
+      </c>
+      <c r="B8" s="81">
+        <v>0</v>
+      </c>
+      <c r="C8" s="75">
+        <v>0</v>
+      </c>
+      <c r="D8" s="78">
+        <v>0</v>
+      </c>
+      <c r="E8" s="78">
+        <v>0</v>
+      </c>
+      <c r="F8" s="78">
+        <v>0</v>
+      </c>
+      <c r="G8" s="78">
+        <v>0</v>
+      </c>
+      <c r="H8" s="78">
+        <v>0</v>
+      </c>
+      <c r="I8" s="78">
+        <v>0</v>
+      </c>
+      <c r="J8" s="79">
+        <v>0</v>
+      </c>
+      <c r="K8" s="75">
+        <v>0</v>
+      </c>
+      <c r="L8" s="78">
+        <v>0</v>
+      </c>
+      <c r="M8" s="78">
+        <v>0</v>
+      </c>
+      <c r="N8" s="79">
+        <v>0</v>
+      </c>
+      <c r="O8" s="80">
+        <v>0</v>
+      </c>
+      <c r="P8" s="79">
         <v>0</v>
       </c>
       <c r="Q8" s="32">
@@ -2804,30 +2823,30 @@
         <v>0</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="82">
-        <v>0</v>
-      </c>
-      <c r="U8" s="85">
-        <v>0</v>
-      </c>
-      <c r="V8" s="85">
-        <v>0</v>
-      </c>
-      <c r="W8" s="85">
-        <v>0</v>
-      </c>
-      <c r="X8" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="86">
+        <v>66</v>
+      </c>
+      <c r="T8" s="75">
+        <v>0</v>
+      </c>
+      <c r="U8" s="78">
+        <v>0</v>
+      </c>
+      <c r="V8" s="78">
+        <v>0</v>
+      </c>
+      <c r="W8" s="78">
+        <v>0</v>
+      </c>
+      <c r="X8" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="79">
         <v>0</v>
       </c>
       <c r="AB8" s="32">
@@ -2837,51 +2856,51 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="81">
-        <v>0</v>
-      </c>
-      <c r="C9" s="82">
-        <v>0</v>
-      </c>
-      <c r="D9" s="85">
-        <v>0</v>
-      </c>
-      <c r="E9" s="85">
-        <v>0</v>
-      </c>
-      <c r="F9" s="85">
-        <v>0</v>
-      </c>
-      <c r="G9" s="85">
-        <v>0</v>
-      </c>
-      <c r="H9" s="85">
-        <v>0</v>
-      </c>
-      <c r="I9" s="85">
-        <v>0</v>
-      </c>
-      <c r="J9" s="86">
-        <v>0</v>
-      </c>
-      <c r="K9" s="82">
-        <v>0</v>
-      </c>
-      <c r="L9" s="85">
-        <v>0</v>
-      </c>
-      <c r="M9" s="85">
-        <v>0</v>
-      </c>
-      <c r="N9" s="86">
-        <v>0</v>
-      </c>
-      <c r="O9" s="87">
-        <v>0</v>
-      </c>
-      <c r="P9" s="86">
+        <v>67</v>
+      </c>
+      <c r="B9" s="74">
+        <v>0</v>
+      </c>
+      <c r="C9" s="75">
+        <v>0</v>
+      </c>
+      <c r="D9" s="78">
+        <v>0</v>
+      </c>
+      <c r="E9" s="78">
+        <v>0</v>
+      </c>
+      <c r="F9" s="78">
+        <v>0</v>
+      </c>
+      <c r="G9" s="78">
+        <v>0</v>
+      </c>
+      <c r="H9" s="78">
+        <v>0</v>
+      </c>
+      <c r="I9" s="78">
+        <v>0</v>
+      </c>
+      <c r="J9" s="79">
+        <v>0</v>
+      </c>
+      <c r="K9" s="75">
+        <v>0</v>
+      </c>
+      <c r="L9" s="78">
+        <v>0</v>
+      </c>
+      <c r="M9" s="78">
+        <v>0</v>
+      </c>
+      <c r="N9" s="79">
+        <v>0</v>
+      </c>
+      <c r="O9" s="80">
+        <v>0</v>
+      </c>
+      <c r="P9" s="79">
         <v>0</v>
       </c>
       <c r="Q9" s="32">
@@ -2889,30 +2908,30 @@
         <v>0</v>
       </c>
       <c r="S9" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="T9" s="82">
-        <v>0</v>
-      </c>
-      <c r="U9" s="85">
-        <v>0</v>
-      </c>
-      <c r="V9" s="85">
-        <v>0</v>
-      </c>
-      <c r="W9" s="85">
-        <v>0</v>
-      </c>
-      <c r="X9" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="86">
+        <v>68</v>
+      </c>
+      <c r="T9" s="75">
+        <v>0</v>
+      </c>
+      <c r="U9" s="78">
+        <v>0</v>
+      </c>
+      <c r="V9" s="78">
+        <v>0</v>
+      </c>
+      <c r="W9" s="78">
+        <v>0</v>
+      </c>
+      <c r="X9" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="79">
         <v>0</v>
       </c>
       <c r="AB9" s="32">
@@ -2922,51 +2941,51 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="81">
-        <v>0</v>
-      </c>
-      <c r="C10" s="82">
-        <v>0</v>
-      </c>
-      <c r="D10" s="85">
-        <v>0</v>
-      </c>
-      <c r="E10" s="85">
-        <v>0</v>
-      </c>
-      <c r="F10" s="85">
-        <v>0</v>
-      </c>
-      <c r="G10" s="85">
-        <v>0</v>
-      </c>
-      <c r="H10" s="85">
-        <v>0</v>
-      </c>
-      <c r="I10" s="85">
-        <v>0</v>
-      </c>
-      <c r="J10" s="86">
-        <v>0</v>
-      </c>
-      <c r="K10" s="82">
-        <v>0</v>
-      </c>
-      <c r="L10" s="85">
-        <v>0</v>
-      </c>
-      <c r="M10" s="85">
-        <v>0</v>
-      </c>
-      <c r="N10" s="86">
-        <v>0</v>
-      </c>
-      <c r="O10" s="87">
-        <v>0</v>
-      </c>
-      <c r="P10" s="86">
+        <v>69</v>
+      </c>
+      <c r="B10" s="74">
+        <v>0</v>
+      </c>
+      <c r="C10" s="75">
+        <v>0</v>
+      </c>
+      <c r="D10" s="78">
+        <v>0</v>
+      </c>
+      <c r="E10" s="78">
+        <v>0</v>
+      </c>
+      <c r="F10" s="78">
+        <v>0</v>
+      </c>
+      <c r="G10" s="78">
+        <v>0</v>
+      </c>
+      <c r="H10" s="78">
+        <v>0</v>
+      </c>
+      <c r="I10" s="78">
+        <v>0</v>
+      </c>
+      <c r="J10" s="79">
+        <v>0</v>
+      </c>
+      <c r="K10" s="75">
+        <v>0</v>
+      </c>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="78">
+        <v>0</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="79">
         <v>0</v>
       </c>
       <c r="Q10" s="32">
@@ -2974,30 +2993,30 @@
         <v>0</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="T10" s="97">
-        <v>0</v>
-      </c>
-      <c r="U10" s="85">
-        <v>0</v>
-      </c>
-      <c r="V10" s="85">
-        <v>0</v>
-      </c>
-      <c r="W10" s="85">
-        <v>0</v>
-      </c>
-      <c r="X10" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="96">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="86">
+        <v>70</v>
+      </c>
+      <c r="T10" s="90">
+        <v>0</v>
+      </c>
+      <c r="U10" s="78">
+        <v>0</v>
+      </c>
+      <c r="V10" s="78">
+        <v>0</v>
+      </c>
+      <c r="W10" s="78">
+        <v>0</v>
+      </c>
+      <c r="X10" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="79">
         <v>0</v>
       </c>
       <c r="AB10" s="32">
@@ -3007,51 +3026,51 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="81">
-        <v>0</v>
-      </c>
-      <c r="C11" s="82">
-        <v>0</v>
-      </c>
-      <c r="D11" s="85">
-        <v>0</v>
-      </c>
-      <c r="E11" s="85">
-        <v>0</v>
-      </c>
-      <c r="F11" s="85">
-        <v>0</v>
-      </c>
-      <c r="G11" s="85">
-        <v>0</v>
-      </c>
-      <c r="H11" s="85">
-        <v>0</v>
-      </c>
-      <c r="I11" s="85">
-        <v>0</v>
-      </c>
-      <c r="J11" s="86">
-        <v>0</v>
-      </c>
-      <c r="K11" s="82">
-        <v>0</v>
-      </c>
-      <c r="L11" s="85">
-        <v>0</v>
-      </c>
-      <c r="M11" s="85">
-        <v>0</v>
-      </c>
-      <c r="N11" s="86">
-        <v>0</v>
-      </c>
-      <c r="O11" s="87">
-        <v>0</v>
-      </c>
-      <c r="P11" s="86">
+        <v>71</v>
+      </c>
+      <c r="B11" s="74">
+        <v>0</v>
+      </c>
+      <c r="C11" s="75">
+        <v>0</v>
+      </c>
+      <c r="D11" s="78">
+        <v>0</v>
+      </c>
+      <c r="E11" s="78">
+        <v>0</v>
+      </c>
+      <c r="F11" s="78">
+        <v>0</v>
+      </c>
+      <c r="G11" s="78">
+        <v>0</v>
+      </c>
+      <c r="H11" s="78">
+        <v>0</v>
+      </c>
+      <c r="I11" s="78">
+        <v>0</v>
+      </c>
+      <c r="J11" s="79">
+        <v>0</v>
+      </c>
+      <c r="K11" s="75">
+        <v>0</v>
+      </c>
+      <c r="L11" s="78">
+        <v>0</v>
+      </c>
+      <c r="M11" s="78">
+        <v>0</v>
+      </c>
+      <c r="N11" s="79">
+        <v>0</v>
+      </c>
+      <c r="O11" s="80">
+        <v>0</v>
+      </c>
+      <c r="P11" s="79">
         <v>0</v>
       </c>
       <c r="Q11" s="32">
@@ -3059,30 +3078,30 @@
         <v>0</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="T11" s="82">
-        <v>0</v>
-      </c>
-      <c r="U11" s="85">
-        <v>0</v>
-      </c>
-      <c r="V11" s="85">
-        <v>0</v>
-      </c>
-      <c r="W11" s="85">
-        <v>0</v>
-      </c>
-      <c r="X11" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="86">
+        <v>72</v>
+      </c>
+      <c r="T11" s="75">
+        <v>0</v>
+      </c>
+      <c r="U11" s="78">
+        <v>0</v>
+      </c>
+      <c r="V11" s="78">
+        <v>0</v>
+      </c>
+      <c r="W11" s="78">
+        <v>0</v>
+      </c>
+      <c r="X11" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="79">
         <v>0</v>
       </c>
       <c r="AB11" s="32">
@@ -3092,51 +3111,51 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="81">
-        <v>0</v>
-      </c>
-      <c r="C12" s="82">
-        <v>0</v>
-      </c>
-      <c r="D12" s="85">
-        <v>0</v>
-      </c>
-      <c r="E12" s="85">
-        <v>0</v>
-      </c>
-      <c r="F12" s="85">
-        <v>0</v>
-      </c>
-      <c r="G12" s="85">
-        <v>0</v>
-      </c>
-      <c r="H12" s="85">
-        <v>0</v>
-      </c>
-      <c r="I12" s="85">
-        <v>0</v>
-      </c>
-      <c r="J12" s="86">
-        <v>0</v>
-      </c>
-      <c r="K12" s="82">
-        <v>0</v>
-      </c>
-      <c r="L12" s="85">
-        <v>0</v>
-      </c>
-      <c r="M12" s="85">
-        <v>0</v>
-      </c>
-      <c r="N12" s="86">
-        <v>0</v>
-      </c>
-      <c r="O12" s="87">
-        <v>0</v>
-      </c>
-      <c r="P12" s="86">
+        <v>73</v>
+      </c>
+      <c r="B12" s="74">
+        <v>0</v>
+      </c>
+      <c r="C12" s="75">
+        <v>0</v>
+      </c>
+      <c r="D12" s="78">
+        <v>0</v>
+      </c>
+      <c r="E12" s="78">
+        <v>0</v>
+      </c>
+      <c r="F12" s="78">
+        <v>0</v>
+      </c>
+      <c r="G12" s="78">
+        <v>0</v>
+      </c>
+      <c r="H12" s="78">
+        <v>0</v>
+      </c>
+      <c r="I12" s="78">
+        <v>0</v>
+      </c>
+      <c r="J12" s="79">
+        <v>0</v>
+      </c>
+      <c r="K12" s="75">
+        <v>0</v>
+      </c>
+      <c r="L12" s="78">
+        <v>0</v>
+      </c>
+      <c r="M12" s="78">
+        <v>0</v>
+      </c>
+      <c r="N12" s="79">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="79">
         <v>0</v>
       </c>
       <c r="Q12" s="32">
@@ -3144,30 +3163,30 @@
         <v>0</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="T12" s="82">
-        <v>0</v>
-      </c>
-      <c r="U12" s="85">
-        <v>0</v>
-      </c>
-      <c r="V12" s="85">
-        <v>0</v>
-      </c>
-      <c r="W12" s="85">
-        <v>0</v>
-      </c>
-      <c r="X12" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="86">
+        <v>74</v>
+      </c>
+      <c r="T12" s="75">
+        <v>0</v>
+      </c>
+      <c r="U12" s="78">
+        <v>0</v>
+      </c>
+      <c r="V12" s="78">
+        <v>0</v>
+      </c>
+      <c r="W12" s="78">
+        <v>0</v>
+      </c>
+      <c r="X12" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="79">
         <v>0</v>
       </c>
       <c r="AB12" s="32">
@@ -3177,51 +3196,51 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="81">
-        <v>0</v>
-      </c>
-      <c r="C13" s="82">
-        <v>0</v>
-      </c>
-      <c r="D13" s="85">
-        <v>0</v>
-      </c>
-      <c r="E13" s="85">
-        <v>0</v>
-      </c>
-      <c r="F13" s="85">
-        <v>0</v>
-      </c>
-      <c r="G13" s="85">
-        <v>0</v>
-      </c>
-      <c r="H13" s="85">
-        <v>0</v>
-      </c>
-      <c r="I13" s="85">
-        <v>0</v>
-      </c>
-      <c r="J13" s="86">
-        <v>0</v>
-      </c>
-      <c r="K13" s="82">
-        <v>0</v>
-      </c>
-      <c r="L13" s="85">
-        <v>0</v>
-      </c>
-      <c r="M13" s="85">
-        <v>0</v>
-      </c>
-      <c r="N13" s="86">
-        <v>0</v>
-      </c>
-      <c r="O13" s="89">
-        <v>0</v>
-      </c>
-      <c r="P13" s="86">
+        <v>75</v>
+      </c>
+      <c r="B13" s="74">
+        <v>0</v>
+      </c>
+      <c r="C13" s="75">
+        <v>0</v>
+      </c>
+      <c r="D13" s="78">
+        <v>0</v>
+      </c>
+      <c r="E13" s="78">
+        <v>0</v>
+      </c>
+      <c r="F13" s="78">
+        <v>0</v>
+      </c>
+      <c r="G13" s="78">
+        <v>0</v>
+      </c>
+      <c r="H13" s="78">
+        <v>0</v>
+      </c>
+      <c r="I13" s="78">
+        <v>0</v>
+      </c>
+      <c r="J13" s="79">
+        <v>0</v>
+      </c>
+      <c r="K13" s="75">
+        <v>0</v>
+      </c>
+      <c r="L13" s="78">
+        <v>0</v>
+      </c>
+      <c r="M13" s="78">
+        <v>0</v>
+      </c>
+      <c r="N13" s="79">
+        <v>0</v>
+      </c>
+      <c r="O13" s="82">
+        <v>0</v>
+      </c>
+      <c r="P13" s="79">
         <v>0</v>
       </c>
       <c r="Q13" s="32">
@@ -3229,30 +3248,30 @@
         <v>0</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="82">
-        <v>0</v>
-      </c>
-      <c r="U13" s="85">
-        <v>0</v>
-      </c>
-      <c r="V13" s="85">
-        <v>0</v>
-      </c>
-      <c r="W13" s="85">
-        <v>0</v>
-      </c>
-      <c r="X13" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="86">
+        <v>76</v>
+      </c>
+      <c r="T13" s="75">
+        <v>0</v>
+      </c>
+      <c r="U13" s="78">
+        <v>0</v>
+      </c>
+      <c r="V13" s="78">
+        <v>0</v>
+      </c>
+      <c r="W13" s="78">
+        <v>0</v>
+      </c>
+      <c r="X13" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="79">
         <v>0</v>
       </c>
       <c r="AB13" s="32">
@@ -3262,51 +3281,51 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="81">
-        <v>0</v>
-      </c>
-      <c r="C14" s="90">
-        <v>0</v>
-      </c>
-      <c r="D14" s="85">
-        <v>0</v>
-      </c>
-      <c r="E14" s="85">
-        <v>0</v>
-      </c>
-      <c r="F14" s="85">
-        <v>0</v>
-      </c>
-      <c r="G14" s="85">
-        <v>0</v>
-      </c>
-      <c r="H14" s="85">
-        <v>0</v>
-      </c>
-      <c r="I14" s="85">
-        <v>0</v>
-      </c>
-      <c r="J14" s="86">
-        <v>0</v>
-      </c>
-      <c r="K14" s="82">
-        <v>0</v>
-      </c>
-      <c r="L14" s="85">
-        <v>0</v>
-      </c>
-      <c r="M14" s="85">
-        <v>0</v>
-      </c>
-      <c r="N14" s="86">
-        <v>0</v>
-      </c>
-      <c r="O14" s="87">
-        <v>0</v>
-      </c>
-      <c r="P14" s="86">
+        <v>77</v>
+      </c>
+      <c r="B14" s="74">
+        <v>0</v>
+      </c>
+      <c r="C14" s="83">
+        <v>0</v>
+      </c>
+      <c r="D14" s="78">
+        <v>0</v>
+      </c>
+      <c r="E14" s="78">
+        <v>0</v>
+      </c>
+      <c r="F14" s="78">
+        <v>0</v>
+      </c>
+      <c r="G14" s="78">
+        <v>0</v>
+      </c>
+      <c r="H14" s="78">
+        <v>0</v>
+      </c>
+      <c r="I14" s="78">
+        <v>0</v>
+      </c>
+      <c r="J14" s="79">
+        <v>0</v>
+      </c>
+      <c r="K14" s="75">
+        <v>0</v>
+      </c>
+      <c r="L14" s="78">
+        <v>0</v>
+      </c>
+      <c r="M14" s="78">
+        <v>0</v>
+      </c>
+      <c r="N14" s="79">
+        <v>0</v>
+      </c>
+      <c r="O14" s="80">
+        <v>0</v>
+      </c>
+      <c r="P14" s="79">
         <v>0</v>
       </c>
       <c r="Q14" s="32">
@@ -3314,30 +3333,30 @@
         <v>0</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="T14" s="82">
-        <v>0</v>
-      </c>
-      <c r="U14" s="85">
-        <v>0</v>
-      </c>
-      <c r="V14" s="85">
-        <v>0</v>
-      </c>
-      <c r="W14" s="85">
-        <v>0</v>
-      </c>
-      <c r="X14" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="86">
+        <v>78</v>
+      </c>
+      <c r="T14" s="75">
+        <v>0</v>
+      </c>
+      <c r="U14" s="78">
+        <v>0</v>
+      </c>
+      <c r="V14" s="78">
+        <v>0</v>
+      </c>
+      <c r="W14" s="78">
+        <v>0</v>
+      </c>
+      <c r="X14" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="79">
         <v>0</v>
       </c>
       <c r="AB14" s="32">
@@ -3347,51 +3366,51 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="81">
-        <v>0</v>
-      </c>
-      <c r="C15" s="82">
-        <v>0</v>
-      </c>
-      <c r="D15" s="85">
-        <v>0</v>
-      </c>
-      <c r="E15" s="85">
-        <v>0</v>
-      </c>
-      <c r="F15" s="85">
-        <v>0</v>
-      </c>
-      <c r="G15" s="85">
-        <v>0</v>
-      </c>
-      <c r="H15" s="85">
-        <v>0</v>
-      </c>
-      <c r="I15" s="85">
-        <v>0</v>
-      </c>
-      <c r="J15" s="86">
-        <v>0</v>
-      </c>
-      <c r="K15" s="82">
-        <v>0</v>
-      </c>
-      <c r="L15" s="85">
-        <v>0</v>
-      </c>
-      <c r="M15" s="85">
-        <v>0</v>
-      </c>
-      <c r="N15" s="86">
-        <v>0</v>
-      </c>
-      <c r="O15" s="87">
-        <v>0</v>
-      </c>
-      <c r="P15" s="86">
+        <v>79</v>
+      </c>
+      <c r="B15" s="74">
+        <v>0</v>
+      </c>
+      <c r="C15" s="75">
+        <v>0</v>
+      </c>
+      <c r="D15" s="78">
+        <v>0</v>
+      </c>
+      <c r="E15" s="78">
+        <v>0</v>
+      </c>
+      <c r="F15" s="78">
+        <v>0</v>
+      </c>
+      <c r="G15" s="78">
+        <v>0</v>
+      </c>
+      <c r="H15" s="78">
+        <v>0</v>
+      </c>
+      <c r="I15" s="78">
+        <v>0</v>
+      </c>
+      <c r="J15" s="79">
+        <v>0</v>
+      </c>
+      <c r="K15" s="75">
+        <v>0</v>
+      </c>
+      <c r="L15" s="78">
+        <v>0</v>
+      </c>
+      <c r="M15" s="78">
+        <v>0</v>
+      </c>
+      <c r="N15" s="79">
+        <v>0</v>
+      </c>
+      <c r="O15" s="80">
+        <v>0</v>
+      </c>
+      <c r="P15" s="79">
         <v>0</v>
       </c>
       <c r="Q15" s="32">
@@ -3399,30 +3418,30 @@
         <v>0</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="T15" s="82">
-        <v>0</v>
-      </c>
-      <c r="U15" s="85">
-        <v>0</v>
-      </c>
-      <c r="V15" s="85">
-        <v>0</v>
-      </c>
-      <c r="W15" s="85">
-        <v>0</v>
-      </c>
-      <c r="X15" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="86">
+        <v>80</v>
+      </c>
+      <c r="T15" s="75">
+        <v>0</v>
+      </c>
+      <c r="U15" s="78">
+        <v>0</v>
+      </c>
+      <c r="V15" s="78">
+        <v>0</v>
+      </c>
+      <c r="W15" s="78">
+        <v>0</v>
+      </c>
+      <c r="X15" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="79">
         <v>0</v>
       </c>
       <c r="AB15" s="32">
@@ -3432,51 +3451,51 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="81">
-        <v>0</v>
-      </c>
-      <c r="C16" s="82">
-        <v>0</v>
-      </c>
-      <c r="D16" s="85">
-        <v>0</v>
-      </c>
-      <c r="E16" s="85">
-        <v>0</v>
-      </c>
-      <c r="F16" s="85">
-        <v>0</v>
-      </c>
-      <c r="G16" s="85">
-        <v>0</v>
-      </c>
-      <c r="H16" s="85">
-        <v>0</v>
-      </c>
-      <c r="I16" s="85">
-        <v>0</v>
-      </c>
-      <c r="J16" s="86">
-        <v>0</v>
-      </c>
-      <c r="K16" s="82">
-        <v>0</v>
-      </c>
-      <c r="L16" s="85">
-        <v>0</v>
-      </c>
-      <c r="M16" s="85">
-        <v>0</v>
-      </c>
-      <c r="N16" s="86">
-        <v>0</v>
-      </c>
-      <c r="O16" s="87">
-        <v>0</v>
-      </c>
-      <c r="P16" s="86">
+        <v>81</v>
+      </c>
+      <c r="B16" s="74">
+        <v>0</v>
+      </c>
+      <c r="C16" s="75">
+        <v>0</v>
+      </c>
+      <c r="D16" s="78">
+        <v>0</v>
+      </c>
+      <c r="E16" s="78">
+        <v>0</v>
+      </c>
+      <c r="F16" s="78">
+        <v>0</v>
+      </c>
+      <c r="G16" s="78">
+        <v>0</v>
+      </c>
+      <c r="H16" s="78">
+        <v>0</v>
+      </c>
+      <c r="I16" s="78">
+        <v>0</v>
+      </c>
+      <c r="J16" s="79">
+        <v>0</v>
+      </c>
+      <c r="K16" s="75">
+        <v>0</v>
+      </c>
+      <c r="L16" s="78">
+        <v>0</v>
+      </c>
+      <c r="M16" s="78">
+        <v>0</v>
+      </c>
+      <c r="N16" s="79">
+        <v>0</v>
+      </c>
+      <c r="O16" s="80">
+        <v>0</v>
+      </c>
+      <c r="P16" s="79">
         <v>0</v>
       </c>
       <c r="Q16" s="32">
@@ -3484,30 +3503,30 @@
         <v>0</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="T16" s="82">
-        <v>0</v>
-      </c>
-      <c r="U16" s="85">
-        <v>0</v>
-      </c>
-      <c r="V16" s="85">
-        <v>0</v>
-      </c>
-      <c r="W16" s="85">
-        <v>0</v>
-      </c>
-      <c r="X16" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="86">
+        <v>82</v>
+      </c>
+      <c r="T16" s="75">
+        <v>0</v>
+      </c>
+      <c r="U16" s="78">
+        <v>0</v>
+      </c>
+      <c r="V16" s="78">
+        <v>0</v>
+      </c>
+      <c r="W16" s="78">
+        <v>0</v>
+      </c>
+      <c r="X16" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="79">
         <v>0</v>
       </c>
       <c r="AB16" s="32">
@@ -3517,82 +3536,82 @@
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="91">
+        <v>83</v>
+      </c>
+      <c r="B17" s="84">
         <v>1</v>
       </c>
-      <c r="C17" s="92">
+      <c r="C17" s="85">
         <v>1</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="86">
         <v>1</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="86">
         <v>2</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="86">
         <v>1</v>
       </c>
-      <c r="G17" s="93">
+      <c r="G17" s="86">
         <v>1</v>
       </c>
-      <c r="H17" s="93">
+      <c r="H17" s="86">
         <v>1</v>
       </c>
-      <c r="I17" s="93">
+      <c r="I17" s="86">
+        <v>12</v>
+      </c>
+      <c r="J17" s="87">
+        <v>2</v>
+      </c>
+      <c r="K17" s="85">
         <v>1</v>
       </c>
-      <c r="J17" s="94">
+      <c r="L17" s="86">
+        <v>1</v>
+      </c>
+      <c r="M17" s="86">
+        <v>1</v>
+      </c>
+      <c r="N17" s="87">
+        <v>4</v>
+      </c>
+      <c r="O17" s="88">
         <v>2</v>
       </c>
-      <c r="K17" s="92">
-        <v>1</v>
-      </c>
-      <c r="L17" s="93">
-        <v>1</v>
-      </c>
-      <c r="M17" s="93">
-        <v>1</v>
-      </c>
-      <c r="N17" s="94">
-        <v>1</v>
-      </c>
-      <c r="O17" s="95">
-        <v>2</v>
-      </c>
-      <c r="P17" s="94">
+      <c r="P17" s="87">
         <v>1</v>
       </c>
       <c r="Q17" s="32">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="S17" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="T17" s="90">
-        <v>0</v>
-      </c>
-      <c r="U17" s="83">
-        <v>0</v>
-      </c>
-      <c r="V17" s="83">
-        <v>0</v>
-      </c>
-      <c r="W17" s="83">
-        <v>0</v>
-      </c>
-      <c r="X17" s="83">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="83">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="83">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="98">
+        <v>84</v>
+      </c>
+      <c r="T17" s="83">
+        <v>0</v>
+      </c>
+      <c r="U17" s="76">
+        <v>0</v>
+      </c>
+      <c r="V17" s="76">
+        <v>0</v>
+      </c>
+      <c r="W17" s="76">
+        <v>0</v>
+      </c>
+      <c r="X17" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="91">
         <v>0</v>
       </c>
       <c r="AB17" s="32">
@@ -3608,30 +3627,30 @@
       <c r="N18" s="37"/>
       <c r="Q18" s="38"/>
       <c r="S18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="T18" s="99">
+        <v>85</v>
+      </c>
+      <c r="T18" s="92">
         <v>1</v>
       </c>
-      <c r="U18" s="100">
+      <c r="U18" s="93">
         <v>5</v>
       </c>
-      <c r="V18" s="100">
+      <c r="V18" s="93">
         <v>2</v>
       </c>
-      <c r="W18" s="100">
+      <c r="W18" s="93">
         <v>1</v>
       </c>
-      <c r="X18" s="100">
+      <c r="X18" s="93">
         <v>1</v>
       </c>
-      <c r="Y18" s="100">
+      <c r="Y18" s="93">
         <v>1</v>
       </c>
-      <c r="Z18" s="100">
+      <c r="Z18" s="93">
         <v>1</v>
       </c>
-      <c r="AA18" s="101">
+      <c r="AA18" s="94">
         <v>1</v>
       </c>
       <c r="AB18" s="32">
@@ -3873,136 +3892,136 @@
     </row>
     <row r="40" spans="1:28" ht="16.5" customHeight="1" thickBot="1">
       <c r="A40" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="48">
-        <f t="shared" ref="B40:P40" si="2">SUM(B3:B17)</f>
+        <v>86</v>
+      </c>
+      <c r="B40" s="126">
+        <f>SUM(B3:B38)</f>
         <v>1</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="126">
+        <f t="shared" ref="C40:P40" si="2">SUM(C3:C38)</f>
+        <v>1</v>
+      </c>
+      <c r="D40" s="126">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D40" s="50">
+      <c r="E40" s="126">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F40" s="126">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E40" s="50">
+      <c r="G40" s="126">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="126">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="126">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J40" s="126">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F40" s="50">
+      <c r="K40" s="126">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G40" s="50">
+      <c r="L40" s="126">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H40" s="50">
+      <c r="M40" s="126">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I40" s="50">
+      <c r="N40" s="126">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O40" s="126">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P40" s="126">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J40" s="51">
-        <f t="shared" si="2"/>
+      <c r="Q40" s="48">
+        <f>SUM(B40:P40)</f>
+        <v>32</v>
+      </c>
+      <c r="S40" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="T40" s="49">
+        <f>SUM(T2:T38)</f>
+        <v>1</v>
+      </c>
+      <c r="U40" s="49">
+        <f t="shared" ref="U40:AA40" si="3">SUM(U2:U38)</f>
+        <v>5</v>
+      </c>
+      <c r="V40" s="49">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K40" s="49">
-        <f t="shared" si="2"/>
+      <c r="W40" s="49">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L40" s="50">
-        <f t="shared" si="2"/>
+      <c r="X40" s="49">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M40" s="50">
-        <f t="shared" si="2"/>
+      <c r="Y40" s="49">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N40" s="51">
-        <f t="shared" si="2"/>
+      <c r="Z40" s="49">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O40" s="52">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="P40" s="48">
-        <f t="shared" si="2"/>
+      <c r="AA40" s="49">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q40" s="53">
-        <f>SUM(B40:P40)</f>
-        <v>18</v>
-      </c>
-      <c r="S40" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="T40" s="54">
-        <f t="shared" ref="T40:AA40" si="3">SUM(T2:T16)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="57">
+      <c r="AB40" s="50">
         <f>SUM(T40:AA40)-Z40</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I41" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="J41" s="53">
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="48">
         <f>SUM(C40:J40)+O40+P40-I40</f>
         <v>12</v>
       </c>
-      <c r="K41" s="58"/>
-      <c r="L41" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M41" s="59" t="s">
+      <c r="K41" s="51"/>
+      <c r="L41" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="53">
+      <c r="N41" s="48">
         <f>SUM(K40:M40)</f>
         <v>3</v>
       </c>

--- a/files/DownTime_shift.xlsx
+++ b/files/DownTime_shift.xlsx
@@ -1021,7 +1021,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="11" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1334,6 +1334,9 @@
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="7" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2161,7 +2164,7 @@
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -2318,49 +2321,49 @@
         <v>55</v>
       </c>
       <c r="B3" s="68" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="C3" s="69" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D3" s="70" t="n">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="E3" s="70" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F3" s="70" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" s="70" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="70" t="n">
         <v>10</v>
       </c>
-      <c r="G3" s="70" t="n">
-        <v>1086</v>
-      </c>
-      <c r="H3" s="70" t="n">
-        <v>49</v>
-      </c>
-      <c r="I3" s="70" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" s="71" t="n">
-        <v>14</v>
-      </c>
-      <c r="K3" s="69" t="n">
-        <v>66</v>
-      </c>
-      <c r="L3" s="70" t="n">
-        <v>40</v>
-      </c>
       <c r="M3" s="70" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N3" s="72" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O3" s="73" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P3" s="72" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="32">
         <f>SUM(B3:P3)</f>
@@ -2373,25 +2376,25 @@
         <v>0</v>
       </c>
       <c r="U3" s="78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="78" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W3" s="78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X3" s="78" t="n">
         <v>0</v>
       </c>
       <c r="Y3" s="89" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="78" t="n">
         <v>0</v>
       </c>
       <c r="AA3" s="79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="32">
         <f>SUM(T3:AA3)</f>
@@ -2403,7 +2406,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="75" t="n">
         <v>0</v>
@@ -2488,7 +2491,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="75" t="n">
         <v>0</v>
@@ -2573,7 +2576,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="75" t="n">
         <v>0</v>
@@ -2658,7 +2661,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="74" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" s="75" t="n">
         <v>0</v>
@@ -2743,7 +2746,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="81" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" s="75" t="n">
         <v>0</v>
@@ -2828,7 +2831,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="74" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" s="75" t="n">
         <v>0</v>
@@ -2913,7 +2916,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="74" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" s="75" t="n">
         <v>0</v>
@@ -2998,7 +3001,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="74" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11" s="75" t="n">
         <v>0</v>
@@ -3083,7 +3086,7 @@
         <v>73</v>
       </c>
       <c r="B12" s="74" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" s="75" t="n">
         <v>0</v>
@@ -3168,7 +3171,7 @@
         <v>75</v>
       </c>
       <c r="B13" s="74" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13" s="75" t="n">
         <v>0</v>
@@ -3253,7 +3256,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="74" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C14" s="83" t="n">
         <v>0</v>
@@ -3338,7 +3341,7 @@
         <v>79</v>
       </c>
       <c r="B15" s="74" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C15" s="75" t="n">
         <v>0</v>
@@ -3423,7 +3426,7 @@
         <v>81</v>
       </c>
       <c r="B16" s="74" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C16" s="75" t="n">
         <v>0</v>
@@ -3508,51 +3511,51 @@
         <v>83</v>
       </c>
       <c r="B17" s="84" t="n">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="C17" s="85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="86" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" s="86" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F17" s="86" t="n">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="G17" s="86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="86" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I17" s="86" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J17" s="87" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="K17" s="85" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L17" s="86" t="n">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="M17" s="86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" s="87" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="O17" s="88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="127">
         <f>SUM(B17:P17)</f>
         <v/>
       </c>
@@ -3599,28 +3602,28 @@
         <v>85</v>
       </c>
       <c r="T18" s="92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V18" s="93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W18" s="93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="32">
         <f>SUM(T18:AA18)</f>

--- a/files/DownTime_shift.xlsx
+++ b/files/DownTime_shift.xlsx
@@ -2321,22 +2321,22 @@
         <v>55</v>
       </c>
       <c r="B3" s="68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="69" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="70" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E3" s="70" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="70" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H3" s="70" t="n">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="70" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M3" s="70" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="72" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O3" s="73" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>83</v>
       </c>
       <c r="B17" s="84" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C17" s="85" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="86" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E17" s="86" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="86" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G17" s="86" t="n">
         <v>0</v>
@@ -3532,22 +3532,22 @@
         <v>0</v>
       </c>
       <c r="I17" s="86" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J17" s="87" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17" s="85" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="86" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M17" s="86" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="87" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="O17" s="88" t="n">
         <v>0</v>

--- a/files/DownTime_shift.xlsx
+++ b/files/DownTime_shift.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -1310,6 +1310,9 @@
     </xf>
     <xf borderId="31" fillId="0" fontId="11" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="7" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf applyAlignment="1" borderId="32" fillId="4" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,9 +1337,6 @@
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="7" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1638,43 +1638,43 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:Q25"/>
+  <dimension ref="A3:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="119" width="5.7109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="119" width="17.42578125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="119" width="16.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="119" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="119" width="17.85546875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="119" width="9.42578125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="119" width="15.28515625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="119" width="12.5703125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="119" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="119" width="9.42578125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="119" width="15.28515625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="119" width="6.5703125"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="119" width="11"/>
+    <col customWidth="1" max="1" min="1" style="120" width="5.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="120" width="17.42578125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="120" width="16.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="120" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="120" width="17.85546875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="120" width="9.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="120" width="15.28515625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="120" width="12.5703125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="120" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="120" width="9.42578125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="120" width="15.28515625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="120" width="6.5703125"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="120" width="11"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="3" s="119" spans="1:17" thickBot="1"/>
-    <row customHeight="1" ht="15.75" r="4" s="119" spans="1:17" thickBot="1">
-      <c r="B4" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="122" t="s">
+    <row customHeight="1" ht="15.75" r="3" s="120" spans="1:17" thickBot="1"/>
+    <row customHeight="1" ht="15.75" r="4" s="120" spans="1:17" thickBot="1">
+      <c r="B4" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="124" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="5" s="119" spans="1:17" thickBot="1">
+    <row customHeight="1" ht="15.75" r="5" s="120" spans="1:17" thickBot="1">
       <c r="B5" s="108" t="n"/>
       <c r="C5" s="110" t="s">
         <v>3</v>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="N5" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="6" s="119" spans="1:17" thickBot="1">
+    <row customHeight="1" ht="15.75" r="6" s="120" spans="1:17" thickBot="1">
       <c r="B6" s="112" t="s">
         <v>11</v>
       </c>
@@ -1723,15 +1723,15 @@
         <f>main!I40</f>
         <v/>
       </c>
-      <c r="E6" s="118">
+      <c r="E6" s="119">
         <f>main!Q40</f>
         <v/>
       </c>
-      <c r="F6" s="120">
+      <c r="F6" s="121">
         <f>E6/G6</f>
         <v/>
       </c>
-      <c r="G6" s="121" t="n">
+      <c r="G6" s="122" t="n">
         <v>7200</v>
       </c>
       <c r="H6" s="5">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N6" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="7" s="119" spans="1:17" thickBot="1">
+    <row customHeight="1" ht="15.75" r="7" s="120" spans="1:17" thickBot="1">
       <c r="B7" s="115" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="M7" s="98" t="n"/>
       <c r="N7" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="8" s="119" spans="1:17" thickBot="1">
+    <row customHeight="1" ht="15.75" r="8" s="120" spans="1:17" thickBot="1">
       <c r="B8" s="36" t="n"/>
       <c r="G8" s="37" t="n"/>
       <c r="H8" s="36" t="n"/>
@@ -1790,7 +1790,7 @@
       <c r="N8" s="59" t="n"/>
       <c r="Q8" s="60" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="9" s="119" spans="1:17" thickBot="1">
+    <row customHeight="1" ht="15.75" r="9" s="120" spans="1:17" thickBot="1">
       <c r="B9" s="36" t="n"/>
       <c r="D9" s="99" t="s">
         <v>9</v>
@@ -2080,7 +2080,7 @@
       <c r="K22" s="37" t="n"/>
       <c r="N22" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="23" s="119" spans="1:17">
+    <row customHeight="1" ht="15.75" r="23" s="120" spans="1:17">
       <c r="B23" s="36" t="n"/>
       <c r="C23" s="66" t="s">
         <v>27</v>
@@ -2101,7 +2101,7 @@
       <c r="K23" s="37" t="n"/>
       <c r="N23" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="24" s="119" spans="1:17" thickBot="1">
+    <row customHeight="1" ht="15.75" r="24" s="120" spans="1:17" thickBot="1">
       <c r="B24" s="36" t="n"/>
       <c r="C24" s="67" t="s">
         <v>28</v>
@@ -2122,7 +2122,7 @@
       <c r="K24" s="37" t="n"/>
       <c r="N24" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="25" s="119" spans="1:17" thickBot="1">
+    <row customHeight="1" ht="15.75" r="25" s="120" spans="1:17" thickBot="1">
       <c r="B25" s="51" t="n"/>
       <c r="C25" s="52" t="n"/>
       <c r="D25" s="52" t="n"/>
@@ -2163,49 +2163,49 @@
   </sheetPr>
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="119" width="11.28515625"/>
-    <col customWidth="1" max="2" min="2" style="119" width="10.7109375"/>
-    <col customWidth="1" max="3" min="3" style="119" width="9.28515625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="119" width="8.7109375"/>
-    <col customWidth="1" max="5" min="5" style="119" width="10.5703125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="119" width="5.5703125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="119" width="8.85546875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="119" width="6.42578125"/>
-    <col customWidth="1" max="9" min="9" style="119" width="9"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="119" width="8.140625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="119" width="8.5703125"/>
-    <col customWidth="1" max="13" min="13" style="119" width="13.42578125"/>
-    <col bestFit="1" customWidth="1" max="17" min="17" style="119" width="6"/>
-    <col customWidth="1" max="18" min="18" style="119" width="4"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" style="119" width="11.28515625"/>
-    <col customWidth="1" max="20" min="20" style="119" width="11"/>
-    <col customWidth="1" max="21" min="21" style="119" width="9.85546875"/>
-    <col customWidth="1" max="22" min="22" style="119" width="12.5703125"/>
-    <col customWidth="1" max="23" min="23" style="119" width="9.85546875"/>
-    <col bestFit="1" customWidth="1" max="24" min="24" style="119" width="9"/>
-    <col customWidth="1" max="26" min="26" style="119" width="10.7109375"/>
-    <col customWidth="1" max="27" min="27" style="119" width="10.28515625"/>
-    <col bestFit="1" customWidth="1" max="28" min="28" style="119" width="6"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="120" width="11.28515625"/>
+    <col customWidth="1" max="2" min="2" style="120" width="10.7109375"/>
+    <col customWidth="1" max="3" min="3" style="120" width="9.28515625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="120" width="8.7109375"/>
+    <col customWidth="1" max="5" min="5" style="120" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="120" width="5.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="120" width="8.85546875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="120" width="6.42578125"/>
+    <col customWidth="1" max="9" min="9" style="120" width="9"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="120" width="8.140625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="120" width="8.5703125"/>
+    <col customWidth="1" max="13" min="13" style="120" width="13.42578125"/>
+    <col bestFit="1" customWidth="1" max="17" min="17" style="120" width="6"/>
+    <col customWidth="1" max="18" min="18" style="120" width="4"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="120" width="11.28515625"/>
+    <col customWidth="1" max="20" min="20" style="120" width="11"/>
+    <col customWidth="1" max="21" min="21" style="120" width="9.85546875"/>
+    <col customWidth="1" max="22" min="22" style="120" width="12.5703125"/>
+    <col customWidth="1" max="23" min="23" style="120" width="9.85546875"/>
+    <col bestFit="1" customWidth="1" max="24" min="24" style="120" width="9"/>
+    <col customWidth="1" max="26" min="26" style="120" width="10.7109375"/>
+    <col customWidth="1" max="27" min="27" style="120" width="10.28515625"/>
+    <col bestFit="1" customWidth="1" max="28" min="28" style="120" width="6"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="39" r="1" s="119" spans="1:28" thickBot="1">
+    <row customHeight="1" ht="39" r="1" s="120" spans="1:28" thickBot="1">
       <c r="A1" s="9" t="n"/>
       <c r="B1" s="10" t="n"/>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="125" t="s">
+      <c r="K1" s="126" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="10" t="n"/>
       <c r="P1" s="10" t="n"/>
-      <c r="Q1" s="126" t="s">
+      <c r="Q1" s="127" t="s">
         <v>31</v>
       </c>
       <c r="S1" s="11" t="n"/>
@@ -2237,7 +2237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="52.5" r="2" s="119" spans="1:28" thickBot="1">
+    <row customHeight="1" ht="52.5" r="2" s="120" spans="1:28" thickBot="1">
       <c r="A2" s="16" t="n"/>
       <c r="B2" s="17" t="s">
         <v>40</v>
@@ -3506,7 +3506,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="17" s="119" spans="1:28" thickBot="1">
+    <row customHeight="1" ht="15.75" r="17" s="120" spans="1:28" thickBot="1">
       <c r="A17" s="34" t="s">
         <v>83</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O17" s="88" t="n">
         <v>0</v>
@@ -3555,7 +3555,7 @@
       <c r="P17" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" s="127">
+      <c r="Q17" s="118">
         <f>SUM(B17:P17)</f>
         <v/>
       </c>
@@ -3591,7 +3591,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="18" s="119" spans="1:28" thickBot="1">
+    <row customHeight="1" ht="15.75" r="18" s="120" spans="1:28" thickBot="1">
       <c r="A18" s="41" t="n"/>
       <c r="C18" s="36" t="n"/>
       <c r="J18" s="37" t="n"/>
@@ -3854,7 +3854,7 @@
       <c r="T38" s="36" t="n"/>
       <c r="AA38" s="37" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="39" s="119" spans="1:28" thickBot="1">
+    <row customHeight="1" ht="15.75" r="39" s="120" spans="1:28" thickBot="1">
       <c r="C39" s="36" t="n"/>
       <c r="J39" s="37" t="n"/>
       <c r="K39" s="36" t="n"/>
@@ -3862,7 +3862,7 @@
       <c r="T39" s="36" t="n"/>
       <c r="AA39" s="37" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="40" s="119" spans="1:28" thickBot="1">
+    <row customHeight="1" ht="16.5" r="40" s="120" spans="1:28" thickBot="1">
       <c r="A40" s="47" t="s">
         <v>86</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="41" s="119" spans="1:28" thickBot="1">
+    <row customHeight="1" ht="16.5" r="41" s="120" spans="1:28" thickBot="1">
       <c r="C41" s="51" t="n"/>
       <c r="D41" s="52" t="n"/>
       <c r="E41" s="52" t="n"/>
